--- a/FDA_Drug_Trials_Snapshots_2015-19.xlsx
+++ b/FDA_Drug_Trials_Snapshots_2015-19.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arielcarmeli/Desktop/FDA Drug Trials Snapshots/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arielcarmeli/Documents/GitHub/FDA_DTS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D452A22-B88C-1548-9186-9269E8F50F4F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{F441CDF2-5B87-A94B-B86A-4374180A6C59}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16240" xr2:uid="{2397A3E8-F889-6E44-8C19-9398011308FF}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1596" uniqueCount="555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1606" uniqueCount="552">
   <si>
     <t>Brand_Name</t>
   </si>
@@ -52,9 +52,6 @@
   </si>
   <si>
     <t>Approval_Year</t>
-  </si>
-  <si>
-    <t>Trial_size</t>
   </si>
   <si>
     <t>Sex_comparison</t>
@@ -1613,15 +1610,6 @@
     <t>Leukemia</t>
   </si>
   <si>
-    <t>Ovarian cancer</t>
-  </si>
-  <si>
-    <t>Thyroid cancer</t>
-  </si>
-  <si>
-    <t>Colorectal cancer</t>
-  </si>
-  <si>
     <t>Disease - level 2</t>
   </si>
   <si>
@@ -1676,18 +1664,12 @@
     <t>HIV-1</t>
   </si>
   <si>
-    <t>Flu</t>
-  </si>
-  <si>
     <t>Hepatitis-C</t>
   </si>
   <si>
     <t>Urinary tract infection</t>
   </si>
   <si>
-    <t>Malaria</t>
-  </si>
-  <si>
     <t>Sickle Cell</t>
   </si>
   <si>
@@ -1722,6 +1704,15 @@
   </si>
   <si>
     <t>Hypophosphatasia</t>
+  </si>
+  <si>
+    <t>Enrollment</t>
+  </si>
+  <si>
+    <t>Other Neurology</t>
+  </si>
+  <si>
+    <t>Other Endocrinology and Metabolism</t>
   </si>
 </sst>
 </file>
@@ -2107,7 +2098,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomRight" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2131,10 +2122,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>3</v>
@@ -2143,63 +2134,66 @@
         <v>4</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="P1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="S1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="U1" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="V1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="T1" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
+      </c>
+      <c r="D2" t="s">
+        <v>550</v>
       </c>
       <c r="F2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="G2">
         <v>2017</v>
@@ -2229,21 +2223,21 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>537</v>
+      </c>
+      <c r="F3" t="s">
         <v>24</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" t="s">
-        <v>543</v>
-      </c>
-      <c r="F3" t="s">
-        <v>25</v>
       </c>
       <c r="G3">
         <v>2019</v>
@@ -2252,16 +2246,16 @@
         <v>132</v>
       </c>
       <c r="I3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M3">
         <v>55</v>
@@ -2282,21 +2276,21 @@
         <v>75</v>
       </c>
       <c r="W3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C4" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F4" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G4">
         <v>2017</v>
@@ -2326,18 +2320,21 @@
         <v>32</v>
       </c>
       <c r="W4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
+      </c>
+      <c r="D5" t="s">
+        <v>550</v>
       </c>
       <c r="F5" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="G5">
         <v>2017</v>
@@ -2367,23 +2364,23 @@
         <v>93</v>
       </c>
       <c r="W5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G6">
         <v>2019</v>
@@ -2392,16 +2389,16 @@
         <v>109</v>
       </c>
       <c r="I6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M6">
         <v>48</v>
@@ -2419,21 +2416,21 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>193</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" t="s">
+        <v>544</v>
+      </c>
+      <c r="F7" t="s">
         <v>194</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" t="s">
-        <v>550</v>
-      </c>
-      <c r="F7" t="s">
-        <v>195</v>
       </c>
       <c r="G7">
         <v>2018</v>
@@ -2442,16 +2439,16 @@
         <v>1472</v>
       </c>
       <c r="I7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M7">
         <v>36</v>
@@ -2475,21 +2472,21 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D8" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="F8" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G8">
         <v>2015</v>
@@ -2522,21 +2519,21 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>321</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" t="s">
+        <v>543</v>
+      </c>
+      <c r="F9" t="s">
         <v>322</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" t="s">
-        <v>549</v>
-      </c>
-      <c r="F9" t="s">
-        <v>323</v>
       </c>
       <c r="G9">
         <v>2015</v>
@@ -2569,21 +2566,21 @@
         <v>1</v>
       </c>
       <c r="W9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="D10" t="s">
+        <v>529</v>
+      </c>
+      <c r="F10" t="s">
         <v>43</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>501</v>
-      </c>
-      <c r="D10" t="s">
-        <v>533</v>
-      </c>
-      <c r="F10" t="s">
-        <v>44</v>
       </c>
       <c r="G10">
         <v>2019</v>
@@ -2592,16 +2589,16 @@
         <v>818</v>
       </c>
       <c r="I10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M10">
         <v>24</v>
@@ -2625,23 +2622,23 @@
         <v>100</v>
       </c>
       <c r="W10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G11">
         <v>2019</v>
@@ -2650,16 +2647,16 @@
         <v>182</v>
       </c>
       <c r="I11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M11">
         <v>59</v>
@@ -2683,21 +2680,21 @@
         <v>36</v>
       </c>
       <c r="W11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D12" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="F12" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="G12">
         <v>2017</v>
@@ -2727,21 +2724,21 @@
         <v>8</v>
       </c>
       <c r="W12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>129</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="D13" t="s">
+        <v>532</v>
+      </c>
+      <c r="F13" t="s">
         <v>130</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>501</v>
-      </c>
-      <c r="D13" t="s">
-        <v>536</v>
-      </c>
-      <c r="F13" t="s">
-        <v>131</v>
       </c>
       <c r="G13">
         <v>2019</v>
@@ -2750,16 +2747,16 @@
         <v>247</v>
       </c>
       <c r="I13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M13">
         <v>100</v>
@@ -2783,21 +2780,21 @@
         <v>100</v>
       </c>
       <c r="W13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>213</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" t="s">
+        <v>510</v>
+      </c>
+      <c r="F14" t="s">
         <v>214</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" t="s">
-        <v>511</v>
-      </c>
-      <c r="F14" t="s">
-        <v>215</v>
       </c>
       <c r="G14">
         <v>2018</v>
@@ -2806,16 +2803,16 @@
         <v>372</v>
       </c>
       <c r="I14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J14" t="s">
+        <v>20</v>
+      </c>
+      <c r="K14" t="s">
+        <v>19</v>
+      </c>
+      <c r="L14" t="s">
         <v>21</v>
-      </c>
-      <c r="K14" t="s">
-        <v>20</v>
-      </c>
-      <c r="L14" t="s">
-        <v>22</v>
       </c>
       <c r="M14">
         <v>42</v>
@@ -2839,21 +2836,21 @@
         <v>54</v>
       </c>
       <c r="W14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D15" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="F15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G15">
         <v>2015</v>
@@ -2886,21 +2883,21 @@
         <v>3</v>
       </c>
       <c r="W15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>238</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" t="s">
+        <v>543</v>
+      </c>
+      <c r="F16" t="s">
         <v>239</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" t="s">
-        <v>549</v>
-      </c>
-      <c r="F16" t="s">
-        <v>240</v>
       </c>
       <c r="G16">
         <v>2018</v>
@@ -2909,16 +2906,16 @@
         <v>176</v>
       </c>
       <c r="I16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J16" t="s">
+        <v>20</v>
+      </c>
+      <c r="K16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L16" t="s">
         <v>21</v>
-      </c>
-      <c r="K16" t="s">
-        <v>21</v>
-      </c>
-      <c r="L16" t="s">
-        <v>22</v>
       </c>
       <c r="M16">
         <v>48</v>
@@ -2942,21 +2939,21 @@
         <v>88</v>
       </c>
       <c r="W16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>162</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" t="s">
+        <v>541</v>
+      </c>
+      <c r="F17" t="s">
         <v>163</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D17" t="s">
-        <v>547</v>
-      </c>
-      <c r="F17" t="s">
-        <v>164</v>
       </c>
       <c r="G17">
         <v>2018</v>
@@ -2965,16 +2962,16 @@
         <v>550</v>
       </c>
       <c r="I17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K17" t="s">
+        <v>19</v>
+      </c>
+      <c r="L17" t="s">
         <v>21</v>
-      </c>
-      <c r="K17" t="s">
-        <v>20</v>
-      </c>
-      <c r="L17" t="s">
-        <v>22</v>
       </c>
       <c r="M17">
         <v>46</v>
@@ -2998,21 +2995,21 @@
         <v>75</v>
       </c>
       <c r="W17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D18" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="F18" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G18">
         <v>2017</v>
@@ -3042,21 +3039,21 @@
         <v>100</v>
       </c>
       <c r="W18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D19" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="F19" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G19">
         <v>2016</v>
@@ -3083,21 +3080,21 @@
         <v>32</v>
       </c>
       <c r="W19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D20" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="F20" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="G20">
         <v>2017</v>
@@ -3127,21 +3124,21 @@
         <v>23</v>
       </c>
       <c r="W20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>308</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" t="s">
+        <v>543</v>
+      </c>
+      <c r="F21" t="s">
         <v>309</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21" t="s">
-        <v>549</v>
-      </c>
-      <c r="F21" t="s">
-        <v>310</v>
       </c>
       <c r="G21">
         <v>2015</v>
@@ -3165,21 +3162,21 @@
         <v>8</v>
       </c>
       <c r="W21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>164</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" t="s">
+        <v>512</v>
+      </c>
+      <c r="F22" t="s">
         <v>165</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D22" t="s">
-        <v>513</v>
-      </c>
-      <c r="F22" t="s">
-        <v>166</v>
       </c>
       <c r="G22">
         <v>2018</v>
@@ -3188,16 +3185,16 @@
         <v>1207</v>
       </c>
       <c r="I22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -3221,23 +3218,23 @@
         <v>28</v>
       </c>
       <c r="W22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C23" s="2"/>
-      <c r="D23" t="s">
-        <v>326</v>
+      <c r="D23" s="4" t="s">
+        <v>551</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G23">
         <v>2018</v>
@@ -3246,16 +3243,16 @@
         <v>285</v>
       </c>
       <c r="I23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J23" t="s">
+        <v>20</v>
+      </c>
+      <c r="K23" t="s">
+        <v>20</v>
+      </c>
+      <c r="L23" t="s">
         <v>21</v>
-      </c>
-      <c r="K23" t="s">
-        <v>21</v>
-      </c>
-      <c r="L23" t="s">
-        <v>22</v>
       </c>
       <c r="M23">
         <v>50</v>
@@ -3279,18 +3276,18 @@
         <v>100</v>
       </c>
       <c r="W23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>219</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F24" t="s">
         <v>220</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F24" t="s">
-        <v>221</v>
       </c>
       <c r="G24">
         <v>2018</v>
@@ -3299,16 +3296,16 @@
         <v>916</v>
       </c>
       <c r="I24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J24" t="s">
+        <v>20</v>
+      </c>
+      <c r="K24" t="s">
+        <v>19</v>
+      </c>
+      <c r="L24" t="s">
         <v>21</v>
-      </c>
-      <c r="K24" t="s">
-        <v>20</v>
-      </c>
-      <c r="L24" t="s">
-        <v>22</v>
       </c>
       <c r="M24">
         <v>50</v>
@@ -3332,21 +3329,21 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>234</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" t="s">
+        <v>534</v>
+      </c>
+      <c r="F25" t="s">
         <v>235</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D25" t="s">
-        <v>538</v>
-      </c>
-      <c r="F25" t="s">
-        <v>236</v>
       </c>
       <c r="G25">
         <v>2018</v>
@@ -3355,16 +3352,16 @@
         <v>40</v>
       </c>
       <c r="I25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M25">
         <v>15</v>
@@ -3388,21 +3385,21 @@
         <v>90</v>
       </c>
       <c r="W25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>226</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" t="s">
+        <v>545</v>
+      </c>
+      <c r="F26" t="s">
         <v>227</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D26" t="s">
-        <v>551</v>
-      </c>
-      <c r="F26" t="s">
-        <v>228</v>
       </c>
       <c r="G26">
         <v>2018</v>
@@ -3411,16 +3408,16 @@
         <v>150</v>
       </c>
       <c r="I26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K26" t="s">
+        <v>19</v>
+      </c>
+      <c r="L26" t="s">
         <v>21</v>
-      </c>
-      <c r="K26" t="s">
-        <v>20</v>
-      </c>
-      <c r="L26" t="s">
-        <v>22</v>
       </c>
       <c r="M26">
         <v>61</v>
@@ -3444,24 +3441,24 @@
         <v>13</v>
       </c>
       <c r="W26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>230</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" t="s">
+        <v>516</v>
+      </c>
+      <c r="E27" t="s">
+        <v>521</v>
+      </c>
+      <c r="F27" t="s">
         <v>231</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D27" t="s">
-        <v>517</v>
-      </c>
-      <c r="E27" t="s">
-        <v>525</v>
-      </c>
-      <c r="F27" t="s">
-        <v>232</v>
       </c>
       <c r="G27">
         <v>2018</v>
@@ -3470,16 +3467,16 @@
         <v>179</v>
       </c>
       <c r="I27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J27" t="s">
+        <v>20</v>
+      </c>
+      <c r="K27" t="s">
+        <v>19</v>
+      </c>
+      <c r="L27" t="s">
         <v>21</v>
-      </c>
-      <c r="K27" t="s">
-        <v>20</v>
-      </c>
-      <c r="L27" t="s">
-        <v>22</v>
       </c>
       <c r="M27">
         <v>50</v>
@@ -3503,24 +3500,24 @@
         <v>83</v>
       </c>
       <c r="W27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D28" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E28" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="F28" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="G28">
         <v>2017</v>
@@ -3550,21 +3547,21 @@
         <v>83</v>
       </c>
       <c r="W28" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D29" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="F29" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G29">
         <v>2016</v>
@@ -3591,18 +3588,18 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>68</v>
+      </c>
+      <c r="B30" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="F30" t="s">
         <v>70</v>
-      </c>
-      <c r="F30" t="s">
-        <v>71</v>
       </c>
       <c r="G30">
         <v>2019</v>
@@ -3611,16 +3608,16 @@
         <v>1199</v>
       </c>
       <c r="I30" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J30" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K30" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L30" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M30">
         <v>82</v>
@@ -3644,24 +3641,24 @@
         <v>100</v>
       </c>
       <c r="W30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>246</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D31" t="s">
+        <v>516</v>
+      </c>
+      <c r="E31" t="s">
+        <v>521</v>
+      </c>
+      <c r="F31" t="s">
         <v>247</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D31" t="s">
-        <v>517</v>
-      </c>
-      <c r="E31" t="s">
-        <v>525</v>
-      </c>
-      <c r="F31" t="s">
-        <v>248</v>
       </c>
       <c r="G31">
         <v>2018</v>
@@ -3670,16 +3667,16 @@
         <v>292</v>
       </c>
       <c r="I31" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J31" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K31" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M31">
         <v>53</v>
@@ -3703,18 +3700,18 @@
         <v>57</v>
       </c>
       <c r="W31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>107</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="F32" t="s">
         <v>108</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>368</v>
-      </c>
-      <c r="F32" t="s">
-        <v>109</v>
       </c>
       <c r="G32">
         <v>2019</v>
@@ -3723,16 +3720,16 @@
         <v>622</v>
       </c>
       <c r="I32" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J32" t="s">
+        <v>20</v>
+      </c>
+      <c r="K32" t="s">
+        <v>19</v>
+      </c>
+      <c r="L32" t="s">
         <v>21</v>
-      </c>
-      <c r="K32" t="s">
-        <v>20</v>
-      </c>
-      <c r="L32" t="s">
-        <v>22</v>
       </c>
       <c r="M32">
         <v>49</v>
@@ -3756,21 +3753,21 @@
         <v>90</v>
       </c>
       <c r="W32" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
+        <v>97</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D33" t="s">
+        <v>538</v>
+      </c>
+      <c r="F33" t="s">
         <v>98</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D33" t="s">
-        <v>544</v>
-      </c>
-      <c r="F33" t="s">
-        <v>99</v>
       </c>
       <c r="G33">
         <v>2019</v>
@@ -3779,16 +3776,16 @@
         <v>4439</v>
       </c>
       <c r="I33" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J33" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K33" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L33" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M33">
         <v>84</v>
@@ -3812,21 +3809,21 @@
         <v>90</v>
       </c>
       <c r="W33" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
+        <v>127</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D34" t="s">
+        <v>514</v>
+      </c>
+      <c r="F34" t="s">
         <v>128</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D34" t="s">
-        <v>515</v>
-      </c>
-      <c r="F34" t="s">
-        <v>129</v>
       </c>
       <c r="G34">
         <v>2019</v>
@@ -3835,16 +3832,16 @@
         <v>202</v>
       </c>
       <c r="I34" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J34" t="s">
+        <v>20</v>
+      </c>
+      <c r="K34" t="s">
+        <v>19</v>
+      </c>
+      <c r="L34" t="s">
         <v>21</v>
-      </c>
-      <c r="K34" t="s">
-        <v>20</v>
-      </c>
-      <c r="L34" t="s">
-        <v>22</v>
       </c>
       <c r="M34">
         <v>47</v>
@@ -3868,21 +3865,21 @@
         <v>81</v>
       </c>
       <c r="W34" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D35" t="s">
-        <v>326</v>
+        <v>151</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>551</v>
       </c>
       <c r="F35" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G35">
         <v>2017</v>
@@ -3912,21 +3909,21 @@
         <v>13</v>
       </c>
       <c r="W35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36" t="s">
+        <v>545</v>
+      </c>
+      <c r="F36" t="s">
         <v>41</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D36" t="s">
-        <v>551</v>
-      </c>
-      <c r="F36" t="s">
-        <v>42</v>
       </c>
       <c r="G36">
         <v>2019</v>
@@ -3935,16 +3932,16 @@
         <v>216</v>
       </c>
       <c r="I36" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J36" t="s">
+        <v>20</v>
+      </c>
+      <c r="K36" t="s">
+        <v>19</v>
+      </c>
+      <c r="L36" t="s">
         <v>21</v>
-      </c>
-      <c r="K36" t="s">
-        <v>20</v>
-      </c>
-      <c r="L36" t="s">
-        <v>22</v>
       </c>
       <c r="M36">
         <v>67</v>
@@ -3968,24 +3965,24 @@
         <v>22</v>
       </c>
       <c r="W36" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
+        <v>142</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D37" t="s">
+        <v>516</v>
+      </c>
+      <c r="E37" t="s">
+        <v>518</v>
+      </c>
+      <c r="F37" t="s">
         <v>143</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D37" t="s">
-        <v>517</v>
-      </c>
-      <c r="E37" t="s">
-        <v>522</v>
-      </c>
-      <c r="F37" t="s">
-        <v>144</v>
       </c>
       <c r="G37">
         <v>2018</v>
@@ -3994,16 +3991,16 @@
         <v>237</v>
       </c>
       <c r="I37" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J37" t="s">
+        <v>20</v>
+      </c>
+      <c r="K37" t="s">
+        <v>19</v>
+      </c>
+      <c r="L37" t="s">
         <v>21</v>
-      </c>
-      <c r="K37" t="s">
-        <v>20</v>
-      </c>
-      <c r="L37" t="s">
-        <v>22</v>
       </c>
       <c r="M37">
         <v>38</v>
@@ -4027,18 +4024,18 @@
         <v>62</v>
       </c>
       <c r="W37" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F38" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="G38">
         <v>2017</v>
@@ -4068,23 +4065,23 @@
         <v>34</v>
       </c>
       <c r="W38" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
+        <v>221</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>222</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>223</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="F39" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G39">
         <v>2018</v>
@@ -4093,16 +4090,16 @@
         <v>125</v>
       </c>
       <c r="I39" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J39" t="s">
+        <v>20</v>
+      </c>
+      <c r="K39" t="s">
+        <v>20</v>
+      </c>
+      <c r="L39" t="s">
         <v>21</v>
-      </c>
-      <c r="K39" t="s">
-        <v>21</v>
-      </c>
-      <c r="L39" t="s">
-        <v>22</v>
       </c>
       <c r="M39">
         <v>70</v>
@@ -4126,18 +4123,18 @@
         <v>7</v>
       </c>
       <c r="W39" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
+        <v>248</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F40" t="s">
         <v>249</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F40" t="s">
-        <v>250</v>
       </c>
       <c r="G40">
         <v>2018</v>
@@ -4146,16 +4143,16 @@
         <v>813</v>
       </c>
       <c r="I40" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J40" t="s">
+        <v>20</v>
+      </c>
+      <c r="K40" t="s">
+        <v>19</v>
+      </c>
+      <c r="L40" t="s">
         <v>21</v>
-      </c>
-      <c r="K40" t="s">
-        <v>20</v>
-      </c>
-      <c r="L40" t="s">
-        <v>22</v>
       </c>
       <c r="M40">
         <v>51</v>
@@ -4179,18 +4176,18 @@
         <v>100</v>
       </c>
       <c r="W40" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="F41" t="s">
         <v>45</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>368</v>
-      </c>
-      <c r="F41" t="s">
-        <v>46</v>
       </c>
       <c r="G41">
         <v>2019</v>
@@ -4199,16 +4196,16 @@
         <v>1692</v>
       </c>
       <c r="I41" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J41" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K41" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L41" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M41">
         <v>76</v>
@@ -4232,21 +4229,21 @@
         <v>54</v>
       </c>
       <c r="W41" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
+        <v>187</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D42" t="s">
+        <v>543</v>
+      </c>
+      <c r="F42" t="s">
         <v>188</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D42" t="s">
-        <v>549</v>
-      </c>
-      <c r="F42" t="s">
-        <v>189</v>
       </c>
       <c r="G42">
         <v>2018</v>
@@ -4255,16 +4252,16 @@
         <v>229</v>
       </c>
       <c r="I42" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J42" t="s">
+        <v>20</v>
+      </c>
+      <c r="K42" t="s">
+        <v>19</v>
+      </c>
+      <c r="L42" t="s">
         <v>21</v>
-      </c>
-      <c r="K42" t="s">
-        <v>20</v>
-      </c>
-      <c r="L42" t="s">
-        <v>22</v>
       </c>
       <c r="M42">
         <v>49</v>
@@ -4288,21 +4285,21 @@
         <v>58</v>
       </c>
       <c r="W42" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
+        <v>159</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D43" t="s">
+        <v>543</v>
+      </c>
+      <c r="F43" t="s">
         <v>160</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D43" t="s">
-        <v>549</v>
-      </c>
-      <c r="F43" t="s">
-        <v>161</v>
       </c>
       <c r="G43">
         <v>2018</v>
@@ -4311,16 +4308,16 @@
         <v>94</v>
       </c>
       <c r="I43" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J43" t="s">
+        <v>20</v>
+      </c>
+      <c r="K43" t="s">
+        <v>19</v>
+      </c>
+      <c r="L43" t="s">
         <v>21</v>
-      </c>
-      <c r="K43" t="s">
-        <v>20</v>
-      </c>
-      <c r="L43" t="s">
-        <v>22</v>
       </c>
       <c r="M43">
         <v>23</v>
@@ -4344,21 +4341,21 @@
         <v>100</v>
       </c>
       <c r="W43" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
+        <v>146</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D44" t="s">
+        <v>534</v>
+      </c>
+      <c r="F44" t="s">
         <v>147</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D44" t="s">
-        <v>538</v>
-      </c>
-      <c r="F44" t="s">
-        <v>148</v>
       </c>
       <c r="G44">
         <v>2018</v>
@@ -4367,16 +4364,16 @@
         <v>2414</v>
       </c>
       <c r="I44" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J44" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K44" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L44" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M44">
         <v>13</v>
@@ -4400,21 +4397,21 @@
         <v>65</v>
       </c>
       <c r="W44" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D45" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="F45" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G45">
         <v>2016</v>
@@ -4441,21 +4438,21 @@
         <v>66</v>
       </c>
       <c r="W45" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D46" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="F46" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G46">
         <v>2015</v>
@@ -4488,21 +4485,21 @@
         <v>7</v>
       </c>
       <c r="W46" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D47" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="F47" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="G47">
         <v>2017</v>
@@ -4532,21 +4529,21 @@
         <v>32</v>
       </c>
       <c r="W47" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
+        <v>168</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="F48" t="s">
         <v>169</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="D48" t="s">
-        <v>326</v>
-      </c>
-      <c r="F48" t="s">
-        <v>170</v>
       </c>
       <c r="G48">
         <v>2018</v>
@@ -4555,16 +4552,16 @@
         <v>67</v>
       </c>
       <c r="I48" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J48" t="s">
+        <v>20</v>
+      </c>
+      <c r="K48" t="s">
+        <v>20</v>
+      </c>
+      <c r="L48" t="s">
         <v>21</v>
-      </c>
-      <c r="K48" t="s">
-        <v>21</v>
-      </c>
-      <c r="L48" t="s">
-        <v>22</v>
       </c>
       <c r="M48">
         <v>64</v>
@@ -4588,21 +4585,21 @@
         <v>30</v>
       </c>
       <c r="W48" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D49" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="F49" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G49">
         <v>2019</v>
@@ -4611,16 +4608,16 @@
         <v>2423</v>
       </c>
       <c r="I49" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J49" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K49" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L49" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M49">
         <v>89</v>
@@ -4644,21 +4641,21 @@
         <v>100</v>
       </c>
       <c r="W49" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="50" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
+        <v>232</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D50" t="s">
+        <v>544</v>
+      </c>
+      <c r="F50" t="s">
         <v>233</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D50" t="s">
-        <v>550</v>
-      </c>
-      <c r="F50" t="s">
-        <v>234</v>
       </c>
       <c r="G50">
         <v>2018</v>
@@ -4667,16 +4664,16 @@
         <v>449</v>
       </c>
       <c r="I50" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J50" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K50" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L50" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M50">
         <v>59</v>
@@ -4700,21 +4697,21 @@
         <v>100</v>
       </c>
       <c r="W50" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
+        <v>116</v>
+      </c>
+      <c r="B51" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="D51" t="s">
+        <v>525</v>
+      </c>
+      <c r="F51" t="s">
         <v>118</v>
-      </c>
-      <c r="D51" t="s">
-        <v>529</v>
-      </c>
-      <c r="F51" t="s">
-        <v>119</v>
       </c>
       <c r="G51">
         <v>2019</v>
@@ -4723,16 +4720,16 @@
         <v>441</v>
       </c>
       <c r="I51" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J51" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K51" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L51" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M51">
         <v>10</v>
@@ -4753,24 +4750,24 @@
         <v>63</v>
       </c>
       <c r="W51" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="52" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D52" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E52" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="F52" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G52">
         <v>2017</v>
@@ -4800,18 +4797,18 @@
         <v>36</v>
       </c>
       <c r="W52" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="53" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F53" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G53">
         <v>2017</v>
@@ -4841,21 +4838,21 @@
         <v>20</v>
       </c>
       <c r="W53" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="54" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
+        <v>236</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D54" t="s">
+        <v>545</v>
+      </c>
+      <c r="F54" t="s">
         <v>237</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D54" t="s">
-        <v>551</v>
-      </c>
-      <c r="F54" t="s">
-        <v>238</v>
       </c>
       <c r="G54">
         <v>2018</v>
@@ -4864,16 +4861,16 @@
         <v>441</v>
       </c>
       <c r="I54" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J54" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K54" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L54" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M54">
         <v>47</v>
@@ -4897,18 +4894,18 @@
         <v>4</v>
       </c>
       <c r="W54" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="55" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
+        <v>113</v>
+      </c>
+      <c r="B55" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="B55" s="4" t="s">
+      <c r="F55" t="s">
         <v>115</v>
-      </c>
-      <c r="F55" t="s">
-        <v>116</v>
       </c>
       <c r="G55">
         <v>2019</v>
@@ -4917,16 +4914,16 @@
         <v>1267</v>
       </c>
       <c r="I55" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J55" t="s">
+        <v>20</v>
+      </c>
+      <c r="K55" t="s">
+        <v>19</v>
+      </c>
+      <c r="L55" t="s">
         <v>21</v>
-      </c>
-      <c r="K55" t="s">
-        <v>20</v>
-      </c>
-      <c r="L55" t="s">
-        <v>22</v>
       </c>
       <c r="M55">
         <v>100</v>
@@ -4950,21 +4947,21 @@
         <v>97</v>
       </c>
       <c r="W55" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="56" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
+        <v>16</v>
+      </c>
+      <c r="B56" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="D56" t="s">
+        <v>545</v>
+      </c>
+      <c r="F56" t="s">
         <v>18</v>
-      </c>
-      <c r="D56" t="s">
-        <v>551</v>
-      </c>
-      <c r="F56" t="s">
-        <v>19</v>
       </c>
       <c r="G56">
         <v>2019</v>
@@ -4973,16 +4970,16 @@
         <v>295</v>
       </c>
       <c r="I56" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J56" t="s">
+        <v>20</v>
+      </c>
+      <c r="K56" t="s">
+        <v>19</v>
+      </c>
+      <c r="L56" t="s">
         <v>21</v>
-      </c>
-      <c r="K56" t="s">
-        <v>20</v>
-      </c>
-      <c r="L56" t="s">
-        <v>22</v>
       </c>
       <c r="M56">
         <v>68</v>
@@ -5006,21 +5003,21 @@
         <v>57</v>
       </c>
       <c r="W56" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="57" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
+        <v>133</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D57" t="s">
+        <v>538</v>
+      </c>
+      <c r="F57" t="s">
         <v>134</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D57" t="s">
-        <v>544</v>
-      </c>
-      <c r="F57" t="s">
-        <v>135</v>
       </c>
       <c r="G57">
         <v>2018</v>
@@ -5029,16 +5026,16 @@
         <v>2184</v>
       </c>
       <c r="I57" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J57" t="s">
+        <v>20</v>
+      </c>
+      <c r="K57" t="s">
+        <v>19</v>
+      </c>
+      <c r="L57" t="s">
         <v>21</v>
-      </c>
-      <c r="K57" t="s">
-        <v>20</v>
-      </c>
-      <c r="L57" t="s">
-        <v>22</v>
       </c>
       <c r="M57">
         <v>85</v>
@@ -5062,21 +5059,21 @@
         <v>49</v>
       </c>
       <c r="W57" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="58" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D58" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="F58" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G58">
         <v>2016</v>
@@ -5103,21 +5100,21 @@
         <v>9</v>
       </c>
       <c r="W58" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="59" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D59" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="F59" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G59">
         <v>2015</v>
@@ -5150,18 +5147,18 @@
         <v>1</v>
       </c>
       <c r="W59" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="60" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
+        <v>73</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F60" t="s">
         <v>74</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F60" t="s">
-        <v>75</v>
       </c>
       <c r="G60">
         <v>2019</v>
@@ -5170,16 +5167,16 @@
         <v>654</v>
       </c>
       <c r="I60" t="s">
+        <v>20</v>
+      </c>
+      <c r="J60" t="s">
+        <v>20</v>
+      </c>
+      <c r="K60" t="s">
+        <v>20</v>
+      </c>
+      <c r="L60" t="s">
         <v>21</v>
-      </c>
-      <c r="J60" t="s">
-        <v>21</v>
-      </c>
-      <c r="K60" t="s">
-        <v>21</v>
-      </c>
-      <c r="L60" t="s">
-        <v>22</v>
       </c>
       <c r="M60">
         <v>91</v>
@@ -5203,21 +5200,21 @@
         <v>100</v>
       </c>
       <c r="W60" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="61" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D61" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="F61" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G61">
         <v>2018</v>
@@ -5226,16 +5223,16 @@
         <v>341</v>
       </c>
       <c r="I61" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J61" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K61" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L61" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M61">
         <v>41</v>
@@ -5259,21 +5256,21 @@
         <v>9</v>
       </c>
       <c r="W61" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="62" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
+        <v>211</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D62" t="s">
+        <v>534</v>
+      </c>
+      <c r="F62" t="s">
         <v>212</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D62" t="s">
-        <v>538</v>
-      </c>
-      <c r="F62" t="s">
-        <v>213</v>
       </c>
       <c r="G62">
         <v>2018</v>
@@ -5282,16 +5279,16 @@
         <v>1494</v>
       </c>
       <c r="I62" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J62" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K62" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L62" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M62">
         <v>16</v>
@@ -5315,21 +5312,21 @@
         <v>30</v>
       </c>
       <c r="W62" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="63" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
+        <v>150</v>
+      </c>
+      <c r="B63" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="B63" s="4" t="s">
+      <c r="D63" t="s">
+        <v>548</v>
+      </c>
+      <c r="F63" t="s">
         <v>152</v>
-      </c>
-      <c r="D63" t="s">
-        <v>554</v>
-      </c>
-      <c r="F63" t="s">
-        <v>153</v>
       </c>
       <c r="G63">
         <v>2018</v>
@@ -5338,16 +5335,16 @@
         <v>199</v>
       </c>
       <c r="I63" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J63" t="s">
+        <v>20</v>
+      </c>
+      <c r="K63" t="s">
+        <v>19</v>
+      </c>
+      <c r="L63" t="s">
         <v>21</v>
-      </c>
-      <c r="K63" t="s">
-        <v>20</v>
-      </c>
-      <c r="L63" t="s">
-        <v>22</v>
       </c>
       <c r="M63">
         <v>60</v>
@@ -5371,21 +5368,21 @@
         <v>59</v>
       </c>
       <c r="W63" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="64" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D64" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="F64" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G64">
         <v>2016</v>
@@ -5412,18 +5409,18 @@
         <v>11</v>
       </c>
       <c r="W64" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="65" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
+        <v>26</v>
+      </c>
+      <c r="B65" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B65" s="4" t="s">
+      <c r="F65" t="s">
         <v>28</v>
-      </c>
-      <c r="F65" t="s">
-        <v>29</v>
       </c>
       <c r="G65">
         <v>2019</v>
@@ -5432,16 +5429,16 @@
         <v>2420</v>
       </c>
       <c r="I65" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J65" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K65" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L65" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M65">
         <v>55</v>
@@ -5465,18 +5462,18 @@
         <v>45</v>
       </c>
       <c r="W65" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="66" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F66" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="G66">
         <v>2017</v>
@@ -5506,21 +5503,21 @@
         <v>85</v>
       </c>
       <c r="W66" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="67" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D67" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="F67" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="G67">
         <v>2017</v>
@@ -5550,24 +5547,24 @@
         <v>32</v>
       </c>
       <c r="W67" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="68" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
+        <v>148</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D68" t="s">
+        <v>516</v>
+      </c>
+      <c r="E68" t="s">
+        <v>519</v>
+      </c>
+      <c r="F68" t="s">
         <v>149</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D68" t="s">
-        <v>517</v>
-      </c>
-      <c r="E68" t="s">
-        <v>523</v>
-      </c>
-      <c r="F68" t="s">
-        <v>150</v>
       </c>
       <c r="G68">
         <v>2018</v>
@@ -5576,16 +5573,16 @@
         <v>442</v>
       </c>
       <c r="I68" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J68" t="s">
+        <v>20</v>
+      </c>
+      <c r="K68" t="s">
+        <v>19</v>
+      </c>
+      <c r="L68" t="s">
         <v>21</v>
-      </c>
-      <c r="K68" t="s">
-        <v>20</v>
-      </c>
-      <c r="L68" t="s">
-        <v>22</v>
       </c>
       <c r="M68">
         <v>35</v>
@@ -5609,18 +5606,18 @@
         <v>30</v>
       </c>
       <c r="W68" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="69" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
+        <v>99</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F69" t="s">
         <v>100</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F69" t="s">
-        <v>101</v>
       </c>
       <c r="G69">
         <v>2019</v>
@@ -5629,16 +5626,16 @@
         <v>3141</v>
       </c>
       <c r="I69" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J69" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K69" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L69" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M69">
         <v>79</v>
@@ -5662,18 +5659,18 @@
         <v>26</v>
       </c>
       <c r="W69" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="70" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
+        <v>172</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F70" t="s">
         <v>173</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F70" t="s">
-        <v>174</v>
       </c>
       <c r="G70">
         <v>2018</v>
@@ -5682,16 +5679,16 @@
         <v>1060</v>
       </c>
       <c r="I70" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J70" t="s">
+        <v>20</v>
+      </c>
+      <c r="K70" t="s">
+        <v>20</v>
+      </c>
+      <c r="L70" t="s">
         <v>21</v>
-      </c>
-      <c r="K70" t="s">
-        <v>21</v>
-      </c>
-      <c r="L70" t="s">
-        <v>22</v>
       </c>
       <c r="M70">
         <v>29</v>
@@ -5715,21 +5712,21 @@
         <v>33</v>
       </c>
       <c r="W70" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="71" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D71" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="F71" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="G71">
         <v>2017</v>
@@ -5759,21 +5756,21 @@
         <v>56.999999999999993</v>
       </c>
       <c r="W71" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="72" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
+        <v>224</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D72" t="s">
+        <v>511</v>
+      </c>
+      <c r="F72" t="s">
         <v>225</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D72" t="s">
-        <v>512</v>
-      </c>
-      <c r="F72" t="s">
-        <v>226</v>
       </c>
       <c r="G72">
         <v>2018</v>
@@ -5782,16 +5779,16 @@
         <v>431</v>
       </c>
       <c r="I72" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J72" t="s">
+        <v>20</v>
+      </c>
+      <c r="K72" t="s">
+        <v>19</v>
+      </c>
+      <c r="L72" t="s">
         <v>21</v>
-      </c>
-      <c r="K72" t="s">
-        <v>20</v>
-      </c>
-      <c r="L72" t="s">
-        <v>22</v>
       </c>
       <c r="M72">
         <v>98</v>
@@ -5815,21 +5812,21 @@
         <v>36</v>
       </c>
       <c r="W72" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="73" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
+        <v>101</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D73" t="s">
+        <v>513</v>
+      </c>
+      <c r="F73" t="s">
         <v>102</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D73" t="s">
-        <v>514</v>
-      </c>
-      <c r="F73" t="s">
-        <v>103</v>
       </c>
       <c r="G73">
         <v>2019</v>
@@ -5838,16 +5835,16 @@
         <v>355</v>
       </c>
       <c r="I73" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J73" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K73" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L73" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M73">
         <v>55</v>
@@ -5871,23 +5868,23 @@
         <v>51</v>
       </c>
       <c r="W73" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="74" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G74">
         <v>2019</v>
@@ -5896,16 +5893,16 @@
         <v>1289</v>
       </c>
       <c r="I74" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J74" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K74" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L74" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M74">
         <v>44</v>
@@ -5929,18 +5926,18 @@
         <v>2</v>
       </c>
       <c r="W74" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="75" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
+        <v>207</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F75" t="s">
         <v>208</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F75" t="s">
-        <v>209</v>
       </c>
       <c r="G75">
         <v>2018</v>
@@ -5949,16 +5946,16 @@
         <v>151</v>
       </c>
       <c r="I75" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J75" t="s">
+        <v>20</v>
+      </c>
+      <c r="K75" t="s">
+        <v>19</v>
+      </c>
+      <c r="L75" t="s">
         <v>21</v>
-      </c>
-      <c r="K75" t="s">
-        <v>20</v>
-      </c>
-      <c r="L75" t="s">
-        <v>22</v>
       </c>
       <c r="M75">
         <v>62</v>
@@ -5979,24 +5976,24 @@
         <v>31</v>
       </c>
       <c r="W75" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="76" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
+        <v>88</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D76" t="s">
+        <v>510</v>
+      </c>
+      <c r="E76" t="s">
+        <v>523</v>
+      </c>
+      <c r="F76" t="s">
         <v>89</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D76" t="s">
-        <v>511</v>
-      </c>
-      <c r="E76" t="s">
-        <v>527</v>
-      </c>
-      <c r="F76" t="s">
-        <v>90</v>
       </c>
       <c r="G76">
         <v>2019</v>
@@ -6005,16 +6002,16 @@
         <v>80</v>
       </c>
       <c r="I76" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J76" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K76" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L76" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M76">
         <v>34</v>
@@ -6038,21 +6035,21 @@
         <v>30</v>
       </c>
       <c r="W76" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="77" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D77" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="F77" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="G77">
         <v>2017</v>
@@ -6079,21 +6076,21 @@
         <v>49</v>
       </c>
       <c r="W77" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="78" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D78" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="F78" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G78">
         <v>2018</v>
@@ -6102,16 +6099,16 @@
         <v>1986</v>
       </c>
       <c r="I78" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J78" t="s">
+        <v>20</v>
+      </c>
+      <c r="K78" t="s">
+        <v>20</v>
+      </c>
+      <c r="L78" t="s">
         <v>21</v>
-      </c>
-      <c r="K78" t="s">
-        <v>21</v>
-      </c>
-      <c r="L78" t="s">
-        <v>22</v>
       </c>
       <c r="M78">
         <v>87</v>
@@ -6135,21 +6132,21 @@
         <v>73</v>
       </c>
       <c r="W78" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="79" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D79" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="F79" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="G79">
         <v>2017</v>
@@ -6179,21 +6176,21 @@
         <v>7.0000000000000009</v>
       </c>
       <c r="W79" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="80" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
+        <v>80</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D80" t="s">
+        <v>512</v>
+      </c>
+      <c r="F80" t="s">
         <v>81</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D80" t="s">
-        <v>513</v>
-      </c>
-      <c r="F80" t="s">
-        <v>82</v>
       </c>
       <c r="G80">
         <v>2019</v>
@@ -6202,16 +6199,16 @@
         <v>1509</v>
       </c>
       <c r="I80" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J80" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K80" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L80" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M80">
         <v>0</v>
@@ -6235,24 +6232,24 @@
         <v>9</v>
       </c>
       <c r="W80" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="81" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D81" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E81" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="F81" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G81">
         <v>2016</v>
@@ -6279,21 +6276,21 @@
         <v>58</v>
       </c>
       <c r="W81" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="82" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D82" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="F82" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G82">
         <v>2015</v>
@@ -6326,21 +6323,21 @@
         <v>0</v>
       </c>
       <c r="W82" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="83" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D83" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="F83" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="G83">
         <v>2017</v>
@@ -6370,21 +6367,21 @@
         <v>26</v>
       </c>
       <c r="W83" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="84" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
+        <v>50</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D84" t="s">
+        <v>511</v>
+      </c>
+      <c r="F84" t="s">
         <v>51</v>
-      </c>
-      <c r="B84" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D84" t="s">
-        <v>512</v>
-      </c>
-      <c r="F84" t="s">
-        <v>52</v>
       </c>
       <c r="G84">
         <v>2019</v>
@@ -6393,16 +6390,16 @@
         <v>234</v>
       </c>
       <c r="I84" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J84" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K84" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L84" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M84">
         <v>100</v>
@@ -6426,21 +6423,21 @@
         <v>35</v>
       </c>
       <c r="W84" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="85" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
+        <v>174</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D85" t="s">
+        <v>544</v>
+      </c>
+      <c r="F85" t="s">
         <v>175</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D85" t="s">
-        <v>542</v>
-      </c>
-      <c r="F85" t="s">
-        <v>176</v>
       </c>
       <c r="G85">
         <v>2018</v>
@@ -6449,16 +6446,16 @@
         <v>522</v>
       </c>
       <c r="I85" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J85" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K85" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L85" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M85">
         <v>25</v>
@@ -6482,18 +6479,21 @@
         <v>0</v>
       </c>
       <c r="W85" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="86" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
+        <v>203</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D86" t="s">
+        <v>550</v>
+      </c>
+      <c r="F86" t="s">
         <v>204</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="F86" t="s">
-        <v>205</v>
       </c>
       <c r="G86">
         <v>2018</v>
@@ -6502,16 +6502,16 @@
         <v>225</v>
       </c>
       <c r="I86" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J86" t="s">
+        <v>20</v>
+      </c>
+      <c r="K86" t="s">
+        <v>19</v>
+      </c>
+      <c r="L86" t="s">
         <v>21</v>
-      </c>
-      <c r="K86" t="s">
-        <v>20</v>
-      </c>
-      <c r="L86" t="s">
-        <v>22</v>
       </c>
       <c r="M86">
         <v>26</v>
@@ -6535,24 +6535,24 @@
         <v>19</v>
       </c>
       <c r="W86" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="87" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D87" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E87" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="F87" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G87">
         <v>2017</v>
@@ -6582,21 +6582,21 @@
         <v>33</v>
       </c>
       <c r="W87" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="88" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D88" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="F88" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G88">
         <v>2017</v>
@@ -6626,21 +6626,21 @@
         <v>28.000000000000004</v>
       </c>
       <c r="W88" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="89" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
+        <v>123</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D89" t="s">
+        <v>541</v>
+      </c>
+      <c r="F89" t="s">
         <v>124</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D89" t="s">
-        <v>547</v>
-      </c>
-      <c r="F89" t="s">
-        <v>125</v>
       </c>
       <c r="G89">
         <v>2019</v>
@@ -6649,16 +6649,16 @@
         <v>655</v>
       </c>
       <c r="I89" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J89" t="s">
+        <v>20</v>
+      </c>
+      <c r="K89" t="s">
+        <v>20</v>
+      </c>
+      <c r="L89" t="s">
         <v>21</v>
-      </c>
-      <c r="K89" t="s">
-        <v>21</v>
-      </c>
-      <c r="L89" t="s">
-        <v>22</v>
       </c>
       <c r="M89">
         <v>49</v>
@@ -6682,18 +6682,18 @@
         <v>29</v>
       </c>
       <c r="W89" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="90" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F90" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="G90">
         <v>2017</v>
@@ -6723,18 +6723,21 @@
         <v>91</v>
       </c>
       <c r="W90" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="91" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
+        <v>166</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D91" t="s">
+        <v>550</v>
+      </c>
+      <c r="F91" t="s">
         <v>167</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="F91" t="s">
-        <v>168</v>
       </c>
       <c r="G91">
         <v>2018</v>
@@ -6743,16 +6746,16 @@
         <v>64</v>
       </c>
       <c r="I91" t="s">
+        <v>20</v>
+      </c>
+      <c r="J91" t="s">
+        <v>20</v>
+      </c>
+      <c r="K91" t="s">
+        <v>20</v>
+      </c>
+      <c r="L91" t="s">
         <v>21</v>
-      </c>
-      <c r="J91" t="s">
-        <v>21</v>
-      </c>
-      <c r="K91" t="s">
-        <v>21</v>
-      </c>
-      <c r="L91" t="s">
-        <v>22</v>
       </c>
       <c r="M91">
         <v>61</v>
@@ -6776,21 +6779,21 @@
         <v>61</v>
       </c>
       <c r="W91" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="92" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="D92" t="s">
-        <v>326</v>
+        <v>151</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>551</v>
       </c>
       <c r="F92" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="G92">
         <v>2017</v>
@@ -6820,21 +6823,21 @@
         <v>52</v>
       </c>
       <c r="W92" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="93" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
+        <v>110</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D93" t="s">
+        <v>543</v>
+      </c>
+      <c r="F93" t="s">
         <v>111</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D93" t="s">
-        <v>549</v>
-      </c>
-      <c r="F93" t="s">
-        <v>112</v>
       </c>
       <c r="G93">
         <v>2019</v>
@@ -6843,16 +6846,16 @@
         <v>120</v>
       </c>
       <c r="I93" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J93" t="s">
+        <v>20</v>
+      </c>
+      <c r="K93" t="s">
+        <v>20</v>
+      </c>
+      <c r="L93" t="s">
         <v>21</v>
-      </c>
-      <c r="K93" t="s">
-        <v>21</v>
-      </c>
-      <c r="L93" t="s">
-        <v>22</v>
       </c>
       <c r="M93">
         <v>59</v>
@@ -6876,18 +6879,21 @@
         <v>38</v>
       </c>
       <c r="W93" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="94" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
+        <v>228</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D94" t="s">
+        <v>550</v>
+      </c>
+      <c r="F94" t="s">
         <v>229</v>
-      </c>
-      <c r="B94" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="F94" t="s">
-        <v>230</v>
       </c>
       <c r="G94">
         <v>2018</v>
@@ -6896,16 +6902,16 @@
         <v>172</v>
       </c>
       <c r="I94" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J94" t="s">
+        <v>20</v>
+      </c>
+      <c r="K94" t="s">
+        <v>19</v>
+      </c>
+      <c r="L94" t="s">
         <v>21</v>
-      </c>
-      <c r="K94" t="s">
-        <v>20</v>
-      </c>
-      <c r="L94" t="s">
-        <v>22</v>
       </c>
       <c r="M94">
         <v>31</v>
@@ -6929,21 +6935,21 @@
         <v>48</v>
       </c>
       <c r="W94" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="95" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D95" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="F95" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="G95">
         <v>2017</v>
@@ -6973,18 +6979,18 @@
         <v>19</v>
       </c>
       <c r="W95" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="96" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
+        <v>105</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F96" t="s">
         <v>106</v>
-      </c>
-      <c r="B96" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F96" t="s">
-        <v>107</v>
       </c>
       <c r="G96">
         <v>2019</v>
@@ -6993,16 +6999,16 @@
         <v>1606</v>
       </c>
       <c r="I96" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J96" t="s">
+        <v>20</v>
+      </c>
+      <c r="K96" t="s">
+        <v>19</v>
+      </c>
+      <c r="L96" t="s">
         <v>21</v>
-      </c>
-      <c r="K96" t="s">
-        <v>20</v>
-      </c>
-      <c r="L96" t="s">
-        <v>22</v>
       </c>
       <c r="M96">
         <v>30</v>
@@ -7026,21 +7032,21 @@
         <v>40</v>
       </c>
       <c r="W96" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="97" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D97" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="F97" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G97">
         <v>2015</v>
@@ -7073,18 +7079,18 @@
         <v>0</v>
       </c>
       <c r="W97" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="98" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
+        <v>205</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F98" t="s">
         <v>206</v>
-      </c>
-      <c r="B98" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F98" t="s">
-        <v>207</v>
       </c>
       <c r="G98">
         <v>2018</v>
@@ -7093,16 +7099,16 @@
         <v>1686</v>
       </c>
       <c r="I98" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J98" t="s">
+        <v>20</v>
+      </c>
+      <c r="K98" t="s">
+        <v>19</v>
+      </c>
+      <c r="L98" t="s">
         <v>21</v>
-      </c>
-      <c r="K98" t="s">
-        <v>20</v>
-      </c>
-      <c r="L98" t="s">
-        <v>22</v>
       </c>
       <c r="M98">
         <v>100</v>
@@ -7126,18 +7132,18 @@
         <v>75</v>
       </c>
       <c r="W98" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="99" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
+        <v>66</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F99" t="s">
         <v>67</v>
-      </c>
-      <c r="B99" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F99" t="s">
-        <v>68</v>
       </c>
       <c r="G99">
         <v>2019</v>
@@ -7146,16 +7152,16 @@
         <v>334</v>
       </c>
       <c r="I99" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J99" t="s">
+        <v>20</v>
+      </c>
+      <c r="K99" t="s">
+        <v>19</v>
+      </c>
+      <c r="L99" t="s">
         <v>21</v>
-      </c>
-      <c r="K99" t="s">
-        <v>20</v>
-      </c>
-      <c r="L99" t="s">
-        <v>22</v>
       </c>
       <c r="M99">
         <v>57</v>
@@ -7179,25 +7185,25 @@
         <v>100</v>
       </c>
       <c r="W99" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="100" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D100" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="E100" s="2"/>
       <c r="F100" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="G100">
         <v>2017</v>
@@ -7227,21 +7233,21 @@
         <v>74</v>
       </c>
       <c r="W100" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="101" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
+        <v>30</v>
+      </c>
+      <c r="B101" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B101" s="4" t="s">
+      <c r="D101" t="s">
+        <v>509</v>
+      </c>
+      <c r="F101" t="s">
         <v>32</v>
-      </c>
-      <c r="D101" t="s">
-        <v>510</v>
-      </c>
-      <c r="F101" t="s">
-        <v>33</v>
       </c>
       <c r="G101">
         <v>2019</v>
@@ -7250,16 +7256,16 @@
         <v>87</v>
       </c>
       <c r="I101" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J101" t="s">
+        <v>20</v>
+      </c>
+      <c r="K101" t="s">
+        <v>19</v>
+      </c>
+      <c r="L101" t="s">
         <v>21</v>
-      </c>
-      <c r="K101" t="s">
-        <v>20</v>
-      </c>
-      <c r="L101" t="s">
-        <v>22</v>
       </c>
       <c r="M101">
         <v>21</v>
@@ -7283,21 +7289,21 @@
         <v>22</v>
       </c>
       <c r="W101" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="102" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D102" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="F102" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="G102">
         <v>2017</v>
@@ -7327,24 +7333,24 @@
         <v>28.000000000000004</v>
       </c>
       <c r="W102" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="103" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D103" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E103" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="F103" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G103">
         <v>2017</v>
@@ -7371,21 +7377,21 @@
         <v>47</v>
       </c>
       <c r="W103" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="104" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B104" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D104" t="s">
+        <v>509</v>
+      </c>
+      <c r="F104" t="s">
         <v>32</v>
-      </c>
-      <c r="D104" t="s">
-        <v>510</v>
-      </c>
-      <c r="F104" t="s">
-        <v>33</v>
       </c>
       <c r="G104">
         <v>2019</v>
@@ -7394,16 +7400,16 @@
         <v>125</v>
       </c>
       <c r="I104" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J104" t="s">
+        <v>20</v>
+      </c>
+      <c r="K104" t="s">
+        <v>19</v>
+      </c>
+      <c r="L104" t="s">
         <v>21</v>
-      </c>
-      <c r="K104" t="s">
-        <v>20</v>
-      </c>
-      <c r="L104" t="s">
-        <v>22</v>
       </c>
       <c r="M104">
         <v>30</v>
@@ -7427,25 +7433,25 @@
         <v>94</v>
       </c>
       <c r="W104" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="105" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="E105" s="4"/>
       <c r="F105" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G105">
         <v>2018</v>
@@ -7454,16 +7460,16 @@
         <v>866</v>
       </c>
       <c r="I105" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J105" t="s">
+        <v>20</v>
+      </c>
+      <c r="K105" t="s">
+        <v>19</v>
+      </c>
+      <c r="L105" t="s">
         <v>21</v>
-      </c>
-      <c r="K105" t="s">
-        <v>20</v>
-      </c>
-      <c r="L105" t="s">
-        <v>22</v>
       </c>
       <c r="M105">
         <v>28</v>
@@ -7487,21 +7493,21 @@
         <v>100</v>
       </c>
       <c r="W105" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="106" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D106" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="F106" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="G106">
         <v>2017</v>
@@ -7531,21 +7537,21 @@
         <v>32</v>
       </c>
       <c r="W106" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="107" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
+        <v>119</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D107" t="s">
+        <v>539</v>
+      </c>
+      <c r="F107" t="s">
         <v>120</v>
-      </c>
-      <c r="B107" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D107" t="s">
-        <v>545</v>
-      </c>
-      <c r="F107" t="s">
-        <v>121</v>
       </c>
       <c r="G107">
         <v>2019</v>
@@ -7554,16 +7560,16 @@
         <v>62</v>
       </c>
       <c r="I107" t="s">
+        <v>20</v>
+      </c>
+      <c r="J107" t="s">
+        <v>20</v>
+      </c>
+      <c r="K107" t="s">
+        <v>20</v>
+      </c>
+      <c r="L107" t="s">
         <v>21</v>
-      </c>
-      <c r="J107" t="s">
-        <v>21</v>
-      </c>
-      <c r="K107" t="s">
-        <v>21</v>
-      </c>
-      <c r="L107" t="s">
-        <v>22</v>
       </c>
       <c r="M107">
         <v>0</v>
@@ -7587,21 +7593,21 @@
         <v>81</v>
       </c>
       <c r="W107" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="108" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
+        <v>157</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D108" t="s">
+        <v>545</v>
+      </c>
+      <c r="F108" t="s">
         <v>158</v>
-      </c>
-      <c r="B108" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D108" t="s">
-        <v>551</v>
-      </c>
-      <c r="F108" t="s">
-        <v>159</v>
       </c>
       <c r="G108">
         <v>2018</v>
@@ -7610,16 +7616,16 @@
         <v>435</v>
       </c>
       <c r="I108" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J108" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K108" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L108" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M108">
         <v>35</v>
@@ -7643,23 +7649,23 @@
         <v>19</v>
       </c>
       <c r="W108" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="109" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D109" s="4"/>
       <c r="E109" s="4"/>
       <c r="F109" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G109">
         <v>2019</v>
@@ -7668,16 +7674,16 @@
         <v>11273</v>
       </c>
       <c r="I109" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J109" t="s">
+        <v>20</v>
+      </c>
+      <c r="K109" t="s">
+        <v>19</v>
+      </c>
+      <c r="L109" t="s">
         <v>21</v>
-      </c>
-      <c r="K109" t="s">
-        <v>20</v>
-      </c>
-      <c r="L109" t="s">
-        <v>22</v>
       </c>
       <c r="M109">
         <v>100</v>
@@ -7701,18 +7707,18 @@
         <v>2</v>
       </c>
       <c r="W109" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="110" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F110" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G110">
         <v>2017</v>
@@ -7742,18 +7748,18 @@
         <v>100</v>
       </c>
       <c r="W110" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="111" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F111" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="G111">
         <v>2017</v>
@@ -7783,25 +7789,25 @@
         <v>15</v>
       </c>
       <c r="W111" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="112" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
+        <v>200</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C112" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="B112" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="D112" t="s">
-        <v>326</v>
+      <c r="D112" s="4" t="s">
+        <v>551</v>
       </c>
       <c r="E112" s="2"/>
       <c r="F112" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G112">
         <v>2018</v>
@@ -7810,16 +7816,16 @@
         <v>189</v>
       </c>
       <c r="I112" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J112" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K112" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L112" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M112">
         <v>42</v>
@@ -7843,21 +7849,21 @@
         <v>100</v>
       </c>
       <c r="W112" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="113" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D113" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="F113" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G113">
         <v>2018</v>
@@ -7866,16 +7872,16 @@
         <v>2156</v>
       </c>
       <c r="I113" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J113" t="s">
+        <v>20</v>
+      </c>
+      <c r="K113" t="s">
+        <v>20</v>
+      </c>
+      <c r="L113" t="s">
         <v>21</v>
-      </c>
-      <c r="K113" t="s">
-        <v>21</v>
-      </c>
-      <c r="L113" t="s">
-        <v>22</v>
       </c>
       <c r="M113">
         <v>85</v>
@@ -7899,21 +7905,21 @@
         <v>62</v>
       </c>
       <c r="W113" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="114" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
+        <v>244</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D114" t="s">
+        <v>544</v>
+      </c>
+      <c r="F114" t="s">
         <v>245</v>
-      </c>
-      <c r="B114" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D114" t="s">
-        <v>539</v>
-      </c>
-      <c r="F114" t="s">
-        <v>246</v>
       </c>
       <c r="G114">
         <v>2018</v>
@@ -7922,16 +7928,16 @@
         <v>1119</v>
       </c>
       <c r="I114" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J114" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K114" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L114" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M114">
         <v>50</v>
@@ -7955,21 +7961,21 @@
         <v>34</v>
       </c>
       <c r="W114" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="115" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="D115" t="s">
-        <v>326</v>
+        <v>151</v>
+      </c>
+      <c r="D115" s="4" t="s">
+        <v>551</v>
       </c>
       <c r="F115" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="G115">
         <v>2017</v>
@@ -7999,21 +8005,21 @@
         <v>2</v>
       </c>
       <c r="W115" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="116" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D116" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="F116" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="G116">
         <v>2017</v>
@@ -8043,18 +8049,18 @@
         <v>28.000000000000004</v>
       </c>
       <c r="W116" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="117" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
+        <v>121</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="F117" t="s">
         <v>122</v>
-      </c>
-      <c r="B117" s="4" t="s">
-        <v>368</v>
-      </c>
-      <c r="F117" t="s">
-        <v>123</v>
       </c>
       <c r="G117">
         <v>2019</v>
@@ -8063,16 +8069,16 @@
         <v>266</v>
       </c>
       <c r="I117" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J117" t="s">
+        <v>20</v>
+      </c>
+      <c r="K117" t="s">
+        <v>20</v>
+      </c>
+      <c r="L117" t="s">
         <v>21</v>
-      </c>
-      <c r="K117" t="s">
-        <v>21</v>
-      </c>
-      <c r="L117" t="s">
-        <v>22</v>
       </c>
       <c r="M117">
         <v>50</v>
@@ -8090,18 +8096,18 @@
         <v>0</v>
       </c>
       <c r="W117" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="118" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
+        <v>198</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F118" t="s">
         <v>199</v>
-      </c>
-      <c r="B118" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F118" t="s">
-        <v>200</v>
       </c>
       <c r="G118">
         <v>2018</v>
@@ -8110,16 +8116,16 @@
         <v>2456</v>
       </c>
       <c r="I118" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J118" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K118" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L118" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M118">
         <v>80</v>
@@ -8143,21 +8149,21 @@
         <v>22</v>
       </c>
       <c r="W118" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="119" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D119" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="F119" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G119">
         <v>2016</v>
@@ -8184,21 +8190,21 @@
         <v>11</v>
       </c>
       <c r="W119" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="120" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
+        <v>92</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D120" t="s">
+        <v>545</v>
+      </c>
+      <c r="F120" t="s">
         <v>93</v>
-      </c>
-      <c r="B120" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D120" t="s">
-        <v>551</v>
-      </c>
-      <c r="F120" t="s">
-        <v>94</v>
       </c>
       <c r="G120">
         <v>2019</v>
@@ -8207,16 +8213,16 @@
         <v>336</v>
       </c>
       <c r="I120" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J120" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K120" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L120" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M120">
         <v>58</v>
@@ -8240,18 +8246,18 @@
         <v>8</v>
       </c>
       <c r="W120" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="121" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
+        <v>217</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F121" t="s">
         <v>218</v>
-      </c>
-      <c r="B121" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F121" t="s">
-        <v>219</v>
       </c>
       <c r="G121">
         <v>2018</v>
@@ -8260,16 +8266,16 @@
         <v>2133</v>
       </c>
       <c r="I121" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J121" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K121" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L121" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M121">
         <v>58</v>
@@ -8293,18 +8299,18 @@
         <v>100</v>
       </c>
       <c r="W121" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="122" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F122" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G122">
         <v>2019</v>
@@ -8313,16 +8319,16 @@
         <v>510</v>
       </c>
       <c r="I122" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J122" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K122" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L122" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M122">
         <v>50</v>
@@ -8343,18 +8349,21 @@
         <v>60</v>
       </c>
       <c r="W122" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="123" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
+        <v>75</v>
+      </c>
+      <c r="B123" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B123" s="4" t="s">
+      <c r="D123" t="s">
+        <v>542</v>
+      </c>
+      <c r="F123" t="s">
         <v>77</v>
-      </c>
-      <c r="F123" t="s">
-        <v>78</v>
       </c>
       <c r="G123">
         <v>2019</v>
@@ -8363,16 +8372,16 @@
         <v>1651</v>
       </c>
       <c r="I123" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J123" t="s">
+        <v>20</v>
+      </c>
+      <c r="K123" t="s">
+        <v>19</v>
+      </c>
+      <c r="L123" t="s">
         <v>21</v>
-      </c>
-      <c r="K123" t="s">
-        <v>20</v>
-      </c>
-      <c r="L123" t="s">
-        <v>22</v>
       </c>
       <c r="M123">
         <v>60</v>
@@ -8396,21 +8405,21 @@
         <v>9</v>
       </c>
       <c r="W123" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="124" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D124" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="F124" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="G124">
         <v>2017</v>
@@ -8440,18 +8449,21 @@
         <v>52</v>
       </c>
       <c r="W124" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="125" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
+      </c>
+      <c r="D125" t="s">
+        <v>550</v>
       </c>
       <c r="F125" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="G125">
         <v>2017</v>
@@ -8481,21 +8493,21 @@
         <v>100</v>
       </c>
       <c r="W125" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="126" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
+        <v>215</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D126" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="F126" t="s">
         <v>216</v>
-      </c>
-      <c r="B126" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="D126" t="s">
-        <v>326</v>
-      </c>
-      <c r="F126" t="s">
-        <v>217</v>
       </c>
       <c r="G126">
         <v>2018</v>
@@ -8504,16 +8516,16 @@
         <v>10</v>
       </c>
       <c r="I126" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J126" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K126" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L126" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M126">
         <v>40</v>
@@ -8537,18 +8549,18 @@
         <v>60</v>
       </c>
       <c r="W126" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="127" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
+        <v>140</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F127" t="s">
         <v>141</v>
-      </c>
-      <c r="B127" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F127" t="s">
-        <v>142</v>
       </c>
       <c r="G127">
         <v>2018</v>
@@ -8557,16 +8569,16 @@
         <v>2308</v>
       </c>
       <c r="I127" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J127" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K127" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L127" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M127">
         <v>100</v>
@@ -8590,23 +8602,23 @@
         <v>67</v>
       </c>
       <c r="W127" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="128" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C128" s="2"/>
-      <c r="D128" t="s">
-        <v>326</v>
+      <c r="D128" s="4" t="s">
+        <v>551</v>
       </c>
       <c r="E128" s="2"/>
       <c r="F128" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G128">
         <v>2018</v>
@@ -8615,16 +8627,16 @@
         <v>1011</v>
       </c>
       <c r="I128" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J128" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K128" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L128" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M128">
         <v>41</v>
@@ -8648,21 +8660,21 @@
         <v>90</v>
       </c>
       <c r="W128" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="129" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D129" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="F129" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G129">
         <v>2016</v>
@@ -8689,18 +8701,18 @@
         <v>62</v>
       </c>
       <c r="W129" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="130" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
+        <v>33</v>
+      </c>
+      <c r="B130" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B130" s="4" t="s">
+      <c r="F130" t="s">
         <v>35</v>
-      </c>
-      <c r="F130" t="s">
-        <v>36</v>
       </c>
       <c r="G130">
         <v>2019</v>
@@ -8709,16 +8721,16 @@
         <v>1459</v>
       </c>
       <c r="I130" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J130" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K130" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L130" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M130">
         <v>56</v>
@@ -8742,18 +8754,18 @@
         <v>33</v>
       </c>
       <c r="W130" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="131" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F131" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="G131">
         <v>2017</v>
@@ -8783,18 +8795,18 @@
         <v>14.000000000000002</v>
       </c>
       <c r="W131" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="132" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F132" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="G132">
         <v>2017</v>
@@ -8824,21 +8836,21 @@
         <v>98</v>
       </c>
       <c r="W132" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="133" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="D133" t="s">
-        <v>326</v>
+        <v>151</v>
+      </c>
+      <c r="D133" s="4" t="s">
+        <v>551</v>
       </c>
       <c r="F133" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G133">
         <v>2017</v>
@@ -8868,21 +8880,21 @@
         <v>100</v>
       </c>
       <c r="W133" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="134" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="F134" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G134">
         <v>2015</v>
@@ -8915,21 +8927,21 @@
         <v>3</v>
       </c>
       <c r="W134" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="135" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
+        <v>64</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D135" t="s">
+        <v>545</v>
+      </c>
+      <c r="F135" t="s">
         <v>65</v>
-      </c>
-      <c r="B135" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D135" t="s">
-        <v>551</v>
-      </c>
-      <c r="F135" t="s">
-        <v>66</v>
       </c>
       <c r="G135">
         <v>2019</v>
@@ -8938,16 +8950,16 @@
         <v>94</v>
       </c>
       <c r="I135" t="s">
+        <v>20</v>
+      </c>
+      <c r="J135" t="s">
+        <v>20</v>
+      </c>
+      <c r="K135" t="s">
+        <v>20</v>
+      </c>
+      <c r="L135" t="s">
         <v>21</v>
-      </c>
-      <c r="J135" t="s">
-        <v>21</v>
-      </c>
-      <c r="K135" t="s">
-        <v>21</v>
-      </c>
-      <c r="L135" t="s">
-        <v>22</v>
       </c>
       <c r="M135">
         <v>89</v>
@@ -8971,21 +8983,21 @@
         <v>34</v>
       </c>
       <c r="W135" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="136" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D136" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="F136" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G136">
         <v>2017</v>
@@ -9009,21 +9021,21 @@
         <v>0</v>
       </c>
       <c r="W136" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="137" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D137" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="F137" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G137">
         <v>2016</v>
@@ -9050,21 +9062,21 @@
         <v>0</v>
       </c>
       <c r="W137" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="138" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D138" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="F138" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G138">
         <v>2016</v>
@@ -9091,21 +9103,21 @@
         <v>0</v>
       </c>
       <c r="W138" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="139" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="D139" t="s">
-        <v>326</v>
+        <v>151</v>
+      </c>
+      <c r="D139" s="4" t="s">
+        <v>551</v>
       </c>
       <c r="F139" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G139">
         <v>2015</v>
@@ -9129,18 +9141,18 @@
         <v>17</v>
       </c>
       <c r="W139" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="140" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F140" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G140">
         <v>2015</v>
@@ -9173,21 +9185,21 @@
         <v>0</v>
       </c>
       <c r="W140" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="141" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D141" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="F141" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G141">
         <v>2015</v>
@@ -9220,21 +9232,21 @@
         <v>0</v>
       </c>
       <c r="W141" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="142" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D142" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="F142" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G142">
         <v>2015</v>
@@ -9267,21 +9279,21 @@
         <v>0</v>
       </c>
       <c r="W142" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="143" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D143" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="F143" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G143">
         <v>2015</v>
@@ -9314,21 +9326,21 @@
         <v>0</v>
       </c>
       <c r="W143" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="144" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
+        <v>319</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D144" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="F144" t="s">
         <v>320</v>
-      </c>
-      <c r="B144" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="D144" t="s">
-        <v>326</v>
-      </c>
-      <c r="F144" t="s">
-        <v>321</v>
       </c>
       <c r="G144">
         <v>2015</v>
@@ -9352,21 +9364,21 @@
         <v>0</v>
       </c>
       <c r="W144" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="145" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
+        <v>78</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D145" t="s">
+        <v>540</v>
+      </c>
+      <c r="F145" t="s">
         <v>79</v>
-      </c>
-      <c r="B145" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D145" t="s">
-        <v>546</v>
-      </c>
-      <c r="F145" t="s">
-        <v>80</v>
       </c>
       <c r="G145">
         <v>2019</v>
@@ -9375,16 +9387,16 @@
         <v>1160</v>
       </c>
       <c r="I145" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J145" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K145" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L145" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M145">
         <v>49</v>
@@ -9405,21 +9417,21 @@
         <v>32</v>
       </c>
       <c r="W145" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="146" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D146" t="s">
-        <v>518</v>
+        <v>543</v>
       </c>
       <c r="F146" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G146">
         <v>2016</v>
@@ -9446,21 +9458,21 @@
         <v>42</v>
       </c>
       <c r="W146" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="147" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D147" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="F147" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G147">
         <v>2016</v>
@@ -9487,21 +9499,21 @@
         <v>59</v>
       </c>
       <c r="W147" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="148" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
+        <v>254</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D148" t="s">
+        <v>513</v>
+      </c>
+      <c r="F148" t="s">
         <v>255</v>
-      </c>
-      <c r="B148" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D148" t="s">
-        <v>514</v>
-      </c>
-      <c r="F148" t="s">
-        <v>256</v>
       </c>
       <c r="G148">
         <v>2015</v>
@@ -9534,21 +9546,21 @@
         <v>1</v>
       </c>
       <c r="W148" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="149" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
+        <v>285</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D149" t="s">
+        <v>543</v>
+      </c>
+      <c r="F149" t="s">
         <v>286</v>
-      </c>
-      <c r="B149" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D149" t="s">
-        <v>519</v>
-      </c>
-      <c r="F149" t="s">
-        <v>287</v>
       </c>
       <c r="G149">
         <v>2015</v>
@@ -9581,23 +9593,23 @@
         <v>4</v>
       </c>
       <c r="W149" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="150" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
+        <v>136</v>
+      </c>
+      <c r="B150" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="B150" s="4" t="s">
+      <c r="C150" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>139</v>
       </c>
       <c r="D150" s="2"/>
       <c r="E150" s="2"/>
       <c r="F150" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G150">
         <v>2018</v>
@@ -9606,16 +9618,16 @@
         <v>844</v>
       </c>
       <c r="I150" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J150" t="s">
+        <v>20</v>
+      </c>
+      <c r="K150" t="s">
+        <v>19</v>
+      </c>
+      <c r="L150" t="s">
         <v>21</v>
-      </c>
-      <c r="K150" t="s">
-        <v>20</v>
-      </c>
-      <c r="L150" t="s">
-        <v>22</v>
       </c>
       <c r="M150">
         <v>40</v>
@@ -9636,21 +9648,21 @@
         <v>1</v>
       </c>
       <c r="W150" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="151" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D151" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="F151" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G151">
         <v>2015</v>
@@ -9683,21 +9695,21 @@
         <v>1</v>
       </c>
       <c r="W151" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="152" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
+        <v>240</v>
+      </c>
+      <c r="B152" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D152" t="s">
+        <v>513</v>
+      </c>
+      <c r="F152" t="s">
         <v>241</v>
-      </c>
-      <c r="B152" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D152" t="s">
-        <v>514</v>
-      </c>
-      <c r="F152" t="s">
-        <v>242</v>
       </c>
       <c r="G152">
         <v>2018</v>
@@ -9706,16 +9718,16 @@
         <v>452</v>
       </c>
       <c r="I152" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J152" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K152" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L152" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M152">
         <v>60</v>
@@ -9739,21 +9751,21 @@
         <v>0</v>
       </c>
       <c r="W152" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="153" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
+        <v>177</v>
+      </c>
+      <c r="B153" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D153" t="s">
+        <v>515</v>
+      </c>
+      <c r="F153" t="s">
         <v>178</v>
-      </c>
-      <c r="B153" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D153" t="s">
-        <v>516</v>
-      </c>
-      <c r="F153" t="s">
-        <v>179</v>
       </c>
       <c r="G153">
         <v>2018</v>
@@ -9762,16 +9774,16 @@
         <v>163</v>
       </c>
       <c r="I153" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J153" t="s">
+        <v>20</v>
+      </c>
+      <c r="K153" t="s">
+        <v>19</v>
+      </c>
+      <c r="L153" t="s">
         <v>21</v>
-      </c>
-      <c r="K153" t="s">
-        <v>20</v>
-      </c>
-      <c r="L153" t="s">
-        <v>22</v>
       </c>
       <c r="M153">
         <v>15</v>
@@ -9795,21 +9807,21 @@
         <v>62</v>
       </c>
       <c r="W153" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="154" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D154" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="F154" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G154">
         <v>2017</v>
@@ -9839,21 +9851,21 @@
         <v>41</v>
       </c>
       <c r="W154" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="155" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D155" t="s">
-        <v>518</v>
+        <v>543</v>
       </c>
       <c r="F155" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="G155">
         <v>2017</v>
@@ -9883,21 +9895,24 @@
         <v>70</v>
       </c>
       <c r="W155" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="156" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C156" t="s">
-        <v>499</v>
+        <v>498</v>
+      </c>
+      <c r="D156" t="s">
+        <v>540</v>
       </c>
       <c r="F156" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G156">
         <v>2016</v>
@@ -9924,18 +9939,18 @@
         <v>82</v>
       </c>
       <c r="W156" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="157" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F157" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G157">
         <v>2016</v>
@@ -9962,21 +9977,21 @@
         <v>19</v>
       </c>
       <c r="W157" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="158" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D158" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="F158" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G158">
         <v>2016</v>
@@ -10003,21 +10018,21 @@
         <v>0</v>
       </c>
       <c r="W158" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="159" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D159" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="F159" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G159">
         <v>2018</v>
@@ -10026,16 +10041,16 @@
         <v>1390</v>
       </c>
       <c r="I159" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J159" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K159" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L159" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M159">
         <v>42</v>
@@ -10059,21 +10074,21 @@
         <v>83</v>
       </c>
       <c r="W159" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="160" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
+        <v>289</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D160" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="F160" t="s">
         <v>290</v>
-      </c>
-      <c r="B160" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D160" t="s">
-        <v>326</v>
-      </c>
-      <c r="F160" t="s">
-        <v>291</v>
       </c>
       <c r="G160">
         <v>2015</v>
@@ -10106,25 +10121,25 @@
         <v>1</v>
       </c>
       <c r="W160" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="161" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D161" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="E161" s="2"/>
       <c r="F161" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G161">
         <v>2015</v>
@@ -10157,21 +10172,21 @@
         <v>44</v>
       </c>
       <c r="W161" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="162" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D162" t="s">
-        <v>326</v>
+        <v>151</v>
+      </c>
+      <c r="D162" s="4" t="s">
+        <v>551</v>
       </c>
       <c r="F162" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G162">
         <v>2015</v>
@@ -10204,21 +10219,21 @@
         <v>1</v>
       </c>
       <c r="W162" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="163" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
+        <v>314</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D163" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="F163" t="s">
         <v>315</v>
-      </c>
-      <c r="B163" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D163" t="s">
-        <v>326</v>
-      </c>
-      <c r="F163" t="s">
-        <v>316</v>
       </c>
       <c r="G163">
         <v>2015</v>
@@ -10251,21 +10266,21 @@
         <v>4</v>
       </c>
       <c r="W163" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="164" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
+        <v>263</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D164" t="s">
+        <v>528</v>
+      </c>
+      <c r="F164" t="s">
         <v>264</v>
-      </c>
-      <c r="B164" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="D164" t="s">
-        <v>532</v>
-      </c>
-      <c r="F164" t="s">
-        <v>265</v>
       </c>
       <c r="G164">
         <v>2015</v>
@@ -10298,18 +10313,18 @@
         <v>3</v>
       </c>
       <c r="W164" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="165" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
+        <v>265</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F165" t="s">
         <v>266</v>
-      </c>
-      <c r="B165" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F165" t="s">
-        <v>267</v>
       </c>
       <c r="G165">
         <v>2015</v>
@@ -10342,21 +10357,21 @@
         <v>1</v>
       </c>
       <c r="W165" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="166" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
+        <v>271</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D166" t="s">
+        <v>535</v>
+      </c>
+      <c r="F166" t="s">
         <v>272</v>
-      </c>
-      <c r="B166" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D166" t="s">
-        <v>540</v>
-      </c>
-      <c r="F166" t="s">
-        <v>273</v>
       </c>
       <c r="G166">
         <v>2015</v>
@@ -10389,21 +10404,21 @@
         <v>0</v>
       </c>
       <c r="W166" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="167" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D167" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="F167" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G167">
         <v>2015</v>
@@ -10436,21 +10451,21 @@
         <v>17</v>
       </c>
       <c r="W167" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="168" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
+        <v>86</v>
+      </c>
+      <c r="B168" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D168" t="s">
+        <v>511</v>
+      </c>
+      <c r="F168" t="s">
         <v>87</v>
-      </c>
-      <c r="B168" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D168" t="s">
-        <v>512</v>
-      </c>
-      <c r="F168" t="s">
-        <v>88</v>
       </c>
       <c r="G168">
         <v>2019</v>
@@ -10459,16 +10474,16 @@
         <v>571</v>
       </c>
       <c r="I168" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J168" t="s">
+        <v>20</v>
+      </c>
+      <c r="K168" t="s">
+        <v>19</v>
+      </c>
+      <c r="L168" t="s">
         <v>21</v>
-      </c>
-      <c r="K168" t="s">
-        <v>20</v>
-      </c>
-      <c r="L168" t="s">
-        <v>22</v>
       </c>
       <c r="M168">
         <v>100</v>
@@ -10492,24 +10507,24 @@
         <v>9</v>
       </c>
       <c r="W168" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="169" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
+        <v>185</v>
+      </c>
+      <c r="B169" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D169" t="s">
+        <v>516</v>
+      </c>
+      <c r="E169" t="s">
+        <v>520</v>
+      </c>
+      <c r="F169" t="s">
         <v>186</v>
-      </c>
-      <c r="B169" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D169" t="s">
-        <v>517</v>
-      </c>
-      <c r="E169" t="s">
-        <v>524</v>
-      </c>
-      <c r="F169" t="s">
-        <v>187</v>
       </c>
       <c r="G169">
         <v>2018</v>
@@ -10518,16 +10533,16 @@
         <v>80</v>
       </c>
       <c r="I169" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J169" t="s">
+        <v>20</v>
+      </c>
+      <c r="K169" t="s">
+        <v>19</v>
+      </c>
+      <c r="L169" t="s">
         <v>21</v>
-      </c>
-      <c r="K169" t="s">
-        <v>20</v>
-      </c>
-      <c r="L169" t="s">
-        <v>22</v>
       </c>
       <c r="M169">
         <v>21</v>
@@ -10551,21 +10566,21 @@
         <v>44</v>
       </c>
       <c r="W169" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="170" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D170" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="F170" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="G170">
         <v>2017</v>
@@ -10592,24 +10607,24 @@
         <v>23</v>
       </c>
       <c r="W170" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="171" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
+        <v>37</v>
+      </c>
+      <c r="B171" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D171" t="s">
+        <v>510</v>
+      </c>
+      <c r="E171" t="s">
+        <v>522</v>
+      </c>
+      <c r="F171" t="s">
         <v>38</v>
-      </c>
-      <c r="B171" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D171" t="s">
-        <v>511</v>
-      </c>
-      <c r="E171" t="s">
-        <v>526</v>
-      </c>
-      <c r="F171" t="s">
-        <v>39</v>
       </c>
       <c r="G171">
         <v>2019</v>
@@ -10618,16 +10633,16 @@
         <v>118</v>
       </c>
       <c r="I171" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J171" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K171" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L171" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M171">
         <v>25</v>
@@ -10648,21 +10663,21 @@
         <v>8</v>
       </c>
       <c r="W171" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="172" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
+        <v>71</v>
+      </c>
+      <c r="B172" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D172" t="s">
+        <v>543</v>
+      </c>
+      <c r="F172" t="s">
         <v>72</v>
-      </c>
-      <c r="B172" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D172" t="s">
-        <v>549</v>
-      </c>
-      <c r="F172" t="s">
-        <v>73</v>
       </c>
       <c r="G172">
         <v>2019</v>
@@ -10671,16 +10686,16 @@
         <v>192</v>
       </c>
       <c r="I172" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J172" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K172" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L172" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M172">
         <v>43</v>
@@ -10701,21 +10716,21 @@
         <v>8</v>
       </c>
       <c r="W172" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="173" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
+        <v>94</v>
+      </c>
+      <c r="B173" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B173" s="4" t="s">
+      <c r="D173" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="F173" t="s">
         <v>96</v>
-      </c>
-      <c r="D173" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="F173" t="s">
-        <v>97</v>
       </c>
       <c r="G173">
         <v>2019</v>
@@ -10724,16 +10739,16 @@
         <v>430</v>
       </c>
       <c r="I173" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J173" t="s">
+        <v>20</v>
+      </c>
+      <c r="K173" t="s">
+        <v>19</v>
+      </c>
+      <c r="L173" t="s">
         <v>21</v>
-      </c>
-      <c r="K173" t="s">
-        <v>20</v>
-      </c>
-      <c r="L173" t="s">
-        <v>22</v>
       </c>
       <c r="M173">
         <v>43</v>
@@ -10757,24 +10772,24 @@
         <v>4</v>
       </c>
       <c r="W173" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="174" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
+        <v>153</v>
+      </c>
+      <c r="B174" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D174" t="s">
+        <v>516</v>
+      </c>
+      <c r="E174" t="s">
+        <v>518</v>
+      </c>
+      <c r="F174" t="s">
         <v>154</v>
-      </c>
-      <c r="B174" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D174" t="s">
-        <v>517</v>
-      </c>
-      <c r="E174" t="s">
-        <v>522</v>
-      </c>
-      <c r="F174" t="s">
-        <v>155</v>
       </c>
       <c r="G174">
         <v>2018</v>
@@ -10783,16 +10798,16 @@
         <v>125</v>
       </c>
       <c r="I174" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J174" t="s">
+        <v>20</v>
+      </c>
+      <c r="K174" t="s">
+        <v>19</v>
+      </c>
+      <c r="L174" t="s">
         <v>21</v>
-      </c>
-      <c r="K174" t="s">
-        <v>20</v>
-      </c>
-      <c r="L174" t="s">
-        <v>22</v>
       </c>
       <c r="M174">
         <v>28</v>
@@ -10813,21 +10828,21 @@
         <v>23</v>
       </c>
       <c r="W174" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="175" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="D175" t="s">
-        <v>326</v>
+        <v>151</v>
+      </c>
+      <c r="D175" s="4" t="s">
+        <v>551</v>
       </c>
       <c r="F175" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="G175">
         <v>2017</v>
@@ -10854,18 +10869,21 @@
         <v>24</v>
       </c>
       <c r="W175" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="176" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
+      </c>
+      <c r="D176" t="s">
+        <v>550</v>
       </c>
       <c r="F176" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G176">
         <v>2016</v>
@@ -10892,18 +10910,18 @@
         <v>0</v>
       </c>
       <c r="W176" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="177" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F177" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G177">
         <v>2016</v>
@@ -10930,21 +10948,21 @@
         <v>7</v>
       </c>
       <c r="W177" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="178" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="D178" t="s">
-        <v>326</v>
+        <v>151</v>
+      </c>
+      <c r="D178" s="4" t="s">
+        <v>551</v>
       </c>
       <c r="F178" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G178">
         <v>2015</v>
@@ -10977,21 +10995,21 @@
         <v>0</v>
       </c>
       <c r="W178" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="179" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
+        <v>310</v>
+      </c>
+      <c r="B179" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D179" t="s">
+        <v>527</v>
+      </c>
+      <c r="F179" t="s">
         <v>311</v>
-      </c>
-      <c r="B179" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="D179" t="s">
-        <v>531</v>
-      </c>
-      <c r="F179" t="s">
-        <v>312</v>
       </c>
       <c r="G179">
         <v>2015</v>
@@ -11024,18 +11042,18 @@
         <v>1</v>
       </c>
       <c r="W179" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="180" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
+        <v>312</v>
+      </c>
+      <c r="B180" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="F180" t="s">
         <v>313</v>
-      </c>
-      <c r="B180" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="F180" t="s">
-        <v>314</v>
       </c>
       <c r="G180">
         <v>2015</v>
@@ -11068,18 +11086,18 @@
         <v>1</v>
       </c>
       <c r="W180" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="181" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
+        <v>191</v>
+      </c>
+      <c r="B181" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F181" t="s">
         <v>192</v>
-      </c>
-      <c r="B181" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F181" t="s">
-        <v>193</v>
       </c>
       <c r="G181">
         <v>2018</v>
@@ -11088,16 +11106,16 @@
         <v>2484</v>
       </c>
       <c r="I181" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J181" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K181" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L181" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M181">
         <v>76</v>
@@ -11118,21 +11136,21 @@
         <v>3</v>
       </c>
       <c r="W181" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="182" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
+        <v>181</v>
+      </c>
+      <c r="B182" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D182" t="s">
+        <v>513</v>
+      </c>
+      <c r="F182" t="s">
         <v>182</v>
-      </c>
-      <c r="B182" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D182" t="s">
-        <v>514</v>
-      </c>
-      <c r="F182" t="s">
-        <v>183</v>
       </c>
       <c r="G182">
         <v>2018</v>
@@ -11141,16 +11159,16 @@
         <v>295</v>
       </c>
       <c r="I182" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J182" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K182" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L182" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M182">
         <v>58</v>
@@ -11171,18 +11189,18 @@
         <v>34</v>
       </c>
       <c r="W182" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="183" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F183" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G183">
         <v>2017</v>
@@ -11209,21 +11227,21 @@
         <v>22</v>
       </c>
       <c r="W183" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="184" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
+        <v>278</v>
+      </c>
+      <c r="B184" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D184" t="s">
+        <v>511</v>
+      </c>
+      <c r="F184" t="s">
         <v>279</v>
-      </c>
-      <c r="B184" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D184" t="s">
-        <v>512</v>
-      </c>
-      <c r="F184" t="s">
-        <v>280</v>
       </c>
       <c r="G184">
         <v>2015</v>
@@ -11256,21 +11274,21 @@
         <v>3</v>
       </c>
       <c r="W184" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="185" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
+        <v>287</v>
+      </c>
+      <c r="B185" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D185" t="s">
+        <v>543</v>
+      </c>
+      <c r="F185" t="s">
         <v>288</v>
-      </c>
-      <c r="B185" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D185" t="s">
-        <v>520</v>
-      </c>
-      <c r="F185" t="s">
-        <v>289</v>
       </c>
       <c r="G185">
         <v>2015</v>
@@ -11303,21 +11321,21 @@
         <v>1</v>
       </c>
       <c r="W185" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="186" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D186" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="F186" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G186">
         <v>2016</v>
@@ -11344,21 +11362,21 @@
         <v>19</v>
       </c>
       <c r="W186" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="187" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D187" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="F187" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G187">
         <v>2016</v>
@@ -11385,21 +11403,21 @@
         <v>2</v>
       </c>
       <c r="W187" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="188" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
+        <v>259</v>
+      </c>
+      <c r="B188" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C188" t="s">
+        <v>499</v>
+      </c>
+      <c r="F188" t="s">
         <v>260</v>
-      </c>
-      <c r="B188" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C188" t="s">
-        <v>500</v>
-      </c>
-      <c r="F188" t="s">
-        <v>261</v>
       </c>
       <c r="G188">
         <v>2015</v>
@@ -11432,21 +11450,21 @@
         <v>1</v>
       </c>
       <c r="W188" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="189" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
+        <v>281</v>
+      </c>
+      <c r="B189" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D189" t="s">
+        <v>546</v>
+      </c>
+      <c r="F189" t="s">
         <v>282</v>
-      </c>
-      <c r="B189" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="D189" t="s">
-        <v>552</v>
-      </c>
-      <c r="F189" t="s">
-        <v>283</v>
       </c>
       <c r="G189">
         <v>2015</v>
@@ -11479,18 +11497,18 @@
         <v>8</v>
       </c>
       <c r="W189" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="190" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
+        <v>292</v>
+      </c>
+      <c r="B190" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F190" t="s">
         <v>293</v>
-      </c>
-      <c r="B190" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F190" t="s">
-        <v>294</v>
       </c>
       <c r="G190">
         <v>2015</v>
@@ -11523,21 +11541,21 @@
         <v>3</v>
       </c>
       <c r="W190" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="191" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D191" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="F191" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G191">
         <v>2016</v>
@@ -11564,21 +11582,21 @@
         <v>34</v>
       </c>
       <c r="W191" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="192" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
+        <v>294</v>
+      </c>
+      <c r="B192" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D192" t="s">
+        <v>515</v>
+      </c>
+      <c r="F192" t="s">
         <v>295</v>
-      </c>
-      <c r="B192" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D192" t="s">
-        <v>516</v>
-      </c>
-      <c r="F192" t="s">
-        <v>296</v>
       </c>
       <c r="G192">
         <v>2015</v>
@@ -11611,21 +11629,21 @@
         <v>23</v>
       </c>
       <c r="W192" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="193" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
+        <v>297</v>
+      </c>
+      <c r="B193" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D193" t="s">
+        <v>513</v>
+      </c>
+      <c r="F193" t="s">
         <v>298</v>
-      </c>
-      <c r="B193" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D193" t="s">
-        <v>514</v>
-      </c>
-      <c r="F193" t="s">
-        <v>299</v>
       </c>
       <c r="G193">
         <v>2015</v>
@@ -11658,25 +11676,25 @@
         <v>1</v>
       </c>
       <c r="W193" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="194" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D194" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="E194" s="2"/>
       <c r="F194" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G194">
         <v>2015</v>
@@ -11709,23 +11727,23 @@
         <v>6</v>
       </c>
       <c r="W194" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="195" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C195" s="2"/>
       <c r="D195" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="E195" s="2"/>
       <c r="F195" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G195">
         <v>2018</v>
@@ -11734,16 +11752,16 @@
         <v>774</v>
       </c>
       <c r="I195" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J195" t="s">
+        <v>20</v>
+      </c>
+      <c r="K195" t="s">
+        <v>19</v>
+      </c>
+      <c r="L195" t="s">
         <v>21</v>
-      </c>
-      <c r="K195" t="s">
-        <v>20</v>
-      </c>
-      <c r="L195" t="s">
-        <v>22</v>
       </c>
       <c r="M195">
         <v>45</v>
@@ -11767,21 +11785,21 @@
         <v>1</v>
       </c>
       <c r="W195" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="196" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
+        <v>299</v>
+      </c>
+      <c r="B196" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D196" t="s">
+        <v>526</v>
+      </c>
+      <c r="F196" t="s">
         <v>300</v>
-      </c>
-      <c r="B196" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="D196" t="s">
-        <v>530</v>
-      </c>
-      <c r="F196" t="s">
-        <v>301</v>
       </c>
       <c r="G196">
         <v>2015</v>
@@ -11814,21 +11832,21 @@
         <v>1</v>
       </c>
       <c r="W196" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="197" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D197" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="F197" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="G197">
         <v>2017</v>
@@ -11858,21 +11876,21 @@
         <v>36</v>
       </c>
       <c r="W197" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="198" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
+        <v>242</v>
+      </c>
+      <c r="B198" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D198" t="s">
+        <v>544</v>
+      </c>
+      <c r="F198" t="s">
         <v>243</v>
-      </c>
-      <c r="B198" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D198" t="s">
-        <v>550</v>
-      </c>
-      <c r="F198" t="s">
-        <v>244</v>
       </c>
       <c r="G198">
         <v>2018</v>
@@ -11881,16 +11899,16 @@
         <v>1037</v>
       </c>
       <c r="I198" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J198" t="s">
+        <v>20</v>
+      </c>
+      <c r="K198" t="s">
+        <v>19</v>
+      </c>
+      <c r="L198" t="s">
         <v>21</v>
-      </c>
-      <c r="K198" t="s">
-        <v>20</v>
-      </c>
-      <c r="L198" t="s">
-        <v>22</v>
       </c>
       <c r="M198">
         <v>43</v>
@@ -11914,21 +11932,21 @@
         <v>5</v>
       </c>
       <c r="W198" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="199" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
+        <v>275</v>
+      </c>
+      <c r="B199" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D199" t="s">
+        <v>528</v>
+      </c>
+      <c r="F199" t="s">
         <v>276</v>
-      </c>
-      <c r="B199" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="D199" t="s">
-        <v>532</v>
-      </c>
-      <c r="F199" t="s">
-        <v>277</v>
       </c>
       <c r="G199">
         <v>2015</v>
@@ -11961,21 +11979,21 @@
         <v>7</v>
       </c>
       <c r="W199" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="200" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D200" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="F200" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G200">
         <v>2015</v>
@@ -12008,21 +12026,21 @@
         <v>1</v>
       </c>
       <c r="W200" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="201" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
+        <v>131</v>
+      </c>
+      <c r="B201" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D201" t="s">
+        <v>544</v>
+      </c>
+      <c r="F201" t="s">
         <v>132</v>
-      </c>
-      <c r="B201" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D201" t="s">
-        <v>550</v>
-      </c>
-      <c r="F201" t="s">
-        <v>133</v>
       </c>
       <c r="G201">
         <v>2018</v>
@@ -12031,16 +12049,16 @@
         <v>1099</v>
       </c>
       <c r="I201" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J201" t="s">
+        <v>20</v>
+      </c>
+      <c r="K201" t="s">
+        <v>20</v>
+      </c>
+      <c r="L201" t="s">
         <v>21</v>
-      </c>
-      <c r="K201" t="s">
-        <v>21</v>
-      </c>
-      <c r="L201" t="s">
-        <v>22</v>
       </c>
       <c r="M201">
         <v>50</v>
@@ -12064,21 +12082,21 @@
         <v>0</v>
       </c>
       <c r="W201" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="202" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
+        <v>306</v>
+      </c>
+      <c r="B202" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D202" t="s">
+        <v>513</v>
+      </c>
+      <c r="F202" t="s">
         <v>307</v>
-      </c>
-      <c r="B202" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D202" t="s">
-        <v>514</v>
-      </c>
-      <c r="F202" t="s">
-        <v>308</v>
       </c>
       <c r="G202">
         <v>2015</v>
@@ -12111,21 +12129,21 @@
         <v>4</v>
       </c>
       <c r="W202" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="203" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D203" t="s">
-        <v>326</v>
+        <v>151</v>
+      </c>
+      <c r="D203" s="4" t="s">
+        <v>551</v>
       </c>
       <c r="F203" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G203">
         <v>2015</v>
@@ -12158,24 +12176,24 @@
         <v>1</v>
       </c>
       <c r="W203" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="204" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D204" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E204" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="F204" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G204">
         <v>2017</v>
@@ -12205,18 +12223,18 @@
         <v>13</v>
       </c>
       <c r="W204" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="205" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
+        <v>252</v>
+      </c>
+      <c r="B205" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F205" t="s">
         <v>253</v>
-      </c>
-      <c r="B205" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F205" t="s">
-        <v>254</v>
       </c>
       <c r="G205">
         <v>2015</v>
@@ -12249,18 +12267,18 @@
         <v>0</v>
       </c>
       <c r="W205" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="206" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
+        <v>283</v>
+      </c>
+      <c r="B206" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F206" t="s">
         <v>284</v>
-      </c>
-      <c r="B206" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F206" t="s">
-        <v>285</v>
       </c>
       <c r="G206">
         <v>2015</v>
@@ -12293,21 +12311,21 @@
         <v>0</v>
       </c>
       <c r="W206" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="207" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D207" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F207" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="G207">
         <v>2017</v>
@@ -12337,21 +12355,21 @@
         <v>57.999999999999993</v>
       </c>
       <c r="W207" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="208" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
+        <v>170</v>
+      </c>
+      <c r="B208" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D208" t="s">
+        <v>545</v>
+      </c>
+      <c r="F208" t="s">
         <v>171</v>
-      </c>
-      <c r="B208" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D208" t="s">
-        <v>551</v>
-      </c>
-      <c r="F208" t="s">
-        <v>172</v>
       </c>
       <c r="G208">
         <v>2018</v>
@@ -12360,16 +12378,16 @@
         <v>34</v>
       </c>
       <c r="I208" t="s">
+        <v>20</v>
+      </c>
+      <c r="J208" t="s">
+        <v>20</v>
+      </c>
+      <c r="K208" t="s">
+        <v>20</v>
+      </c>
+      <c r="L208" t="s">
         <v>21</v>
-      </c>
-      <c r="J208" t="s">
-        <v>21</v>
-      </c>
-      <c r="K208" t="s">
-        <v>21</v>
-      </c>
-      <c r="L208" t="s">
-        <v>22</v>
       </c>
       <c r="M208">
         <v>53</v>
@@ -12390,18 +12408,18 @@
         <v>24</v>
       </c>
       <c r="W208" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="209" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F209" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G209">
         <v>2016</v>
@@ -12428,21 +12446,21 @@
         <v>37</v>
       </c>
       <c r="W209" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="210" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
+        <v>144</v>
+      </c>
+      <c r="B210" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D210" t="s">
+        <v>515</v>
+      </c>
+      <c r="F210" t="s">
         <v>145</v>
-      </c>
-      <c r="B210" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D210" t="s">
-        <v>516</v>
-      </c>
-      <c r="F210" t="s">
-        <v>146</v>
       </c>
       <c r="G210">
         <v>2018</v>
@@ -12451,16 +12469,16 @@
         <v>383</v>
       </c>
       <c r="I210" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J210" t="s">
+        <v>20</v>
+      </c>
+      <c r="K210" t="s">
+        <v>19</v>
+      </c>
+      <c r="L210" t="s">
         <v>21</v>
-      </c>
-      <c r="K210" t="s">
-        <v>20</v>
-      </c>
-      <c r="L210" t="s">
-        <v>22</v>
       </c>
       <c r="M210">
         <v>41</v>
@@ -12484,21 +12502,21 @@
         <v>9</v>
       </c>
       <c r="W210" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="211" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="D211" t="s">
-        <v>326</v>
+        <v>151</v>
+      </c>
+      <c r="D211" s="4" t="s">
+        <v>551</v>
       </c>
       <c r="F211" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G211">
         <v>2015</v>
@@ -12522,23 +12540,23 @@
         <v>20</v>
       </c>
       <c r="W211" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="212" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C212" s="1"/>
       <c r="D212" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="E212" s="1"/>
       <c r="F212" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G212">
         <v>2019</v>
@@ -12547,16 +12565,16 @@
         <v>244</v>
       </c>
       <c r="I212" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J212" t="s">
+        <v>20</v>
+      </c>
+      <c r="K212" t="s">
+        <v>20</v>
+      </c>
+      <c r="L212" t="s">
         <v>21</v>
-      </c>
-      <c r="K212" t="s">
-        <v>21</v>
-      </c>
-      <c r="L212" t="s">
-        <v>22</v>
       </c>
       <c r="M212">
         <v>47</v>
@@ -12577,21 +12595,21 @@
         <v>70</v>
       </c>
       <c r="W212" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="213" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="D213" t="s">
-        <v>326</v>
+        <v>151</v>
+      </c>
+      <c r="D213" s="4" t="s">
+        <v>551</v>
       </c>
       <c r="F213" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G213">
         <v>2015</v>
@@ -12624,18 +12642,18 @@
         <v>0</v>
       </c>
       <c r="W213" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="214" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F214" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G214">
         <v>2016</v>
@@ -12662,21 +12680,21 @@
         <v>6</v>
       </c>
       <c r="W214" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="215" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
+        <v>323</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D215" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="F215" t="s">
         <v>324</v>
-      </c>
-      <c r="B215" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D215" t="s">
-        <v>326</v>
-      </c>
-      <c r="F215" t="s">
-        <v>325</v>
       </c>
       <c r="G215">
         <v>2015</v>
@@ -12709,21 +12727,21 @@
         <v>1</v>
       </c>
       <c r="W215" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="216" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
+        <v>189</v>
+      </c>
+      <c r="B216" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D216" t="s">
+        <v>515</v>
+      </c>
+      <c r="F216" t="s">
         <v>190</v>
-      </c>
-      <c r="B216" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D216" t="s">
-        <v>516</v>
-      </c>
-      <c r="F216" t="s">
-        <v>191</v>
       </c>
       <c r="G216">
         <v>2018</v>
@@ -12732,16 +12750,16 @@
         <v>383</v>
       </c>
       <c r="I216" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J216" t="s">
+        <v>20</v>
+      </c>
+      <c r="K216" t="s">
+        <v>19</v>
+      </c>
+      <c r="L216" t="s">
         <v>21</v>
-      </c>
-      <c r="K216" t="s">
-        <v>20</v>
-      </c>
-      <c r="L216" t="s">
-        <v>22</v>
       </c>
       <c r="M216">
         <v>41</v>
@@ -12765,21 +12783,21 @@
         <v>9</v>
       </c>
       <c r="W216" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="217" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D217" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="F217" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G217">
         <v>2015</v>
@@ -12812,18 +12830,18 @@
         <v>0</v>
       </c>
       <c r="W217" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="218" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
+        <v>316</v>
+      </c>
+      <c r="B218" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F218" t="s">
         <v>317</v>
-      </c>
-      <c r="B218" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F218" t="s">
-        <v>318</v>
       </c>
       <c r="G218">
         <v>2015</v>
@@ -12856,21 +12874,21 @@
         <v>1</v>
       </c>
       <c r="W218" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="219" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B219" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D219" t="s">
-        <v>550</v>
+        <v>536</v>
       </c>
       <c r="F219" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="G219">
         <v>2017</v>
@@ -12900,21 +12918,21 @@
         <v>3</v>
       </c>
       <c r="W219" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="220" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D220" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="F220" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G220">
         <v>2015</v>
@@ -12947,21 +12965,21 @@
         <v>4</v>
       </c>
       <c r="W220" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="221" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B221" s="4" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D221" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="F221" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G221">
         <v>2015</v>
@@ -12994,21 +13012,21 @@
         <v>0</v>
       </c>
       <c r="W221" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="222" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B222" s="4" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D222" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="F222" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G222">
         <v>2015</v>
@@ -13041,21 +13059,21 @@
         <v>0</v>
       </c>
       <c r="W222" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="223" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B223" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D223" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="F223" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G223">
         <v>2015</v>
@@ -13088,18 +13106,18 @@
         <v>1</v>
       </c>
       <c r="W223" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="224" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B224" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F224" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G224">
         <v>2016</v>
@@ -13126,21 +13144,21 @@
         <v>0</v>
       </c>
       <c r="W224" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="225" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D225" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="F225" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G225">
         <v>2015</v>
@@ -13173,21 +13191,21 @@
         <v>0</v>
       </c>
       <c r="W225" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="226" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D226" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="F226" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G226">
         <v>2015</v>
@@ -13220,21 +13238,21 @@
         <v>0</v>
       </c>
       <c r="W226" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="227" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
+        <v>250</v>
+      </c>
+      <c r="B227" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D227" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="F227" t="s">
         <v>251</v>
-      </c>
-      <c r="B227" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D227" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="F227" t="s">
-        <v>252</v>
       </c>
       <c r="G227">
         <v>2018</v>
@@ -13243,16 +13261,16 @@
         <v>604</v>
       </c>
       <c r="I227" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J227" t="s">
+        <v>20</v>
+      </c>
+      <c r="K227" t="s">
+        <v>19</v>
+      </c>
+      <c r="L227" t="s">
         <v>21</v>
-      </c>
-      <c r="K227" t="s">
-        <v>20</v>
-      </c>
-      <c r="L227" t="s">
-        <v>22</v>
       </c>
       <c r="M227">
         <v>53</v>
@@ -13276,23 +13294,23 @@
         <v>1</v>
       </c>
       <c r="W227" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="228" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C228" s="1"/>
       <c r="D228" s="1" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="E228" s="1"/>
       <c r="F228" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G228">
         <v>2019</v>
@@ -13301,16 +13319,16 @@
         <v>448</v>
       </c>
       <c r="I228" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J228" t="s">
+        <v>20</v>
+      </c>
+      <c r="K228" t="s">
+        <v>19</v>
+      </c>
+      <c r="L228" t="s">
         <v>21</v>
-      </c>
-      <c r="K228" t="s">
-        <v>20</v>
-      </c>
-      <c r="L228" t="s">
-        <v>22</v>
       </c>
       <c r="M228">
         <v>55</v>
@@ -13331,21 +13349,21 @@
         <v>2</v>
       </c>
       <c r="W228" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="229" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
+        <v>46</v>
+      </c>
+      <c r="B229" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B229" s="4" t="s">
+      <c r="D229" t="s">
+        <v>544</v>
+      </c>
+      <c r="F229" t="s">
         <v>48</v>
-      </c>
-      <c r="D229" t="s">
-        <v>550</v>
-      </c>
-      <c r="F229" t="s">
-        <v>49</v>
       </c>
       <c r="G229">
         <v>2019</v>
@@ -13354,16 +13372,16 @@
         <v>466</v>
       </c>
       <c r="I229" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J229" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K229" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L229" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M229">
         <v>58</v>
@@ -13375,18 +13393,18 @@
         <v>0</v>
       </c>
       <c r="W229" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="230" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B230" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F230" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G230">
         <v>2019</v>
@@ -13395,16 +13413,16 @@
         <v>182</v>
       </c>
       <c r="I230" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J230" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K230" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L230" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M230">
         <v>100</v>
@@ -13413,18 +13431,18 @@
         <v>0</v>
       </c>
       <c r="W230" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="231" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
+        <v>62</v>
+      </c>
+      <c r="B231" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F231" t="s">
         <v>63</v>
-      </c>
-      <c r="B231" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F231" t="s">
-        <v>64</v>
       </c>
       <c r="G231">
         <v>2019</v>
@@ -13433,16 +13451,16 @@
         <v>56</v>
       </c>
       <c r="I231" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J231" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K231" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L231" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M231">
         <v>32</v>
@@ -13454,21 +13472,21 @@
         <v>100</v>
       </c>
       <c r="W231" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="232" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B232" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C232" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F232" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G232">
         <v>2019</v>
@@ -13477,33 +13495,36 @@
         <v>96</v>
       </c>
       <c r="I232" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J232" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K232" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L232" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M232">
         <v>63</v>
       </c>
       <c r="W232" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="233" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
+        <v>155</v>
+      </c>
+      <c r="B233" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D233" t="s">
+        <v>550</v>
+      </c>
+      <c r="F233" t="s">
         <v>156</v>
-      </c>
-      <c r="B233" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="F233" t="s">
-        <v>157</v>
       </c>
       <c r="G233">
         <v>2018</v>
@@ -13512,16 +13533,16 @@
         <v>64</v>
       </c>
       <c r="I233" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J233" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K233" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L233" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M233">
         <v>53</v>
@@ -13533,21 +13554,21 @@
         <v>0</v>
       </c>
       <c r="W233" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="234" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B234" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D234" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="F234" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G234">
         <v>2017</v>
@@ -13565,21 +13586,21 @@
         <v>0</v>
       </c>
       <c r="W234" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="235" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B235" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D235" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="F235" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G235">
         <v>2016</v>
@@ -13594,21 +13615,21 @@
         <v>100</v>
       </c>
       <c r="W235" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="236" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
+        <v>267</v>
+      </c>
+      <c r="B236" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D236" t="s">
+        <v>515</v>
+      </c>
+      <c r="F236" t="s">
         <v>268</v>
-      </c>
-      <c r="B236" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D236" t="s">
-        <v>516</v>
-      </c>
-      <c r="F236" t="s">
-        <v>269</v>
       </c>
       <c r="G236">
         <v>2015</v>
@@ -13635,7 +13656,7 @@
         <v>3</v>
       </c>
       <c r="W236" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
